--- a/BackTest/2019-11-01 BackTest MIX.xlsx
+++ b/BackTest/2019-11-01 BackTest MIX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>9.013999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1799999999999962</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L13" t="n">
         <v>9.016999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>69.23076923076965</v>
+      </c>
       <c r="L14" t="n">
         <v>9.025999999999996</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>42.85714285714431</v>
+      </c>
       <c r="L15" t="n">
         <v>9.034999999999997</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2099999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.11111111111067</v>
+      </c>
       <c r="L16" t="n">
         <v>9.035999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-11.11111111111067</v>
+      </c>
       <c r="L17" t="n">
         <v>9.035999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-24.99999999999889</v>
+      </c>
       <c r="L18" t="n">
         <v>9.034999999999997</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-24.99999999999889</v>
+      </c>
       <c r="L19" t="n">
         <v>9.032999999999996</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-24.99999999999889</v>
+      </c>
       <c r="L20" t="n">
         <v>9.030999999999995</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.2299999999999986</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571356</v>
+      </c>
       <c r="L21" t="n">
         <v>9.029999999999996</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-66.6666666666647</v>
+      </c>
       <c r="L22" t="n">
         <v>9.023999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.3699999999999957</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5555555555555</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L23" t="n">
         <v>9.022999999999996</v>
@@ -1466,7 +1488,7 @@
         <v>0.3699999999999957</v>
       </c>
       <c r="K24" t="n">
-        <v>22.58064516129006</v>
+        <v>-11.11111111111199</v>
       </c>
       <c r="L24" t="n">
         <v>9.020999999999997</v>
@@ -1515,7 +1537,7 @@
         <v>0.3699999999999957</v>
       </c>
       <c r="K25" t="n">
-        <v>22.58064516129006</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>9.018999999999997</v>
@@ -1564,7 +1586,7 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="K26" t="n">
-        <v>7.692307692307587</v>
+        <v>12.5</v>
       </c>
       <c r="L26" t="n">
         <v>9.019999999999996</v>
@@ -1613,7 +1635,7 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307587</v>
+        <v>12.5</v>
       </c>
       <c r="L27" t="n">
         <v>9.021999999999995</v>
@@ -1662,7 +1684,7 @@
         <v>0.3899999999999952</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L28" t="n">
         <v>9.022999999999996</v>
@@ -1711,7 +1733,7 @@
         <v>0.399999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.692307692307587</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>9.022999999999996</v>
@@ -1760,7 +1782,7 @@
         <v>0.4299999999999944</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.24137931034462</v>
+        <v>-20</v>
       </c>
       <c r="L30" t="n">
         <v>9.019999999999996</v>
@@ -1809,7 +1831,7 @@
         <v>0.449999999999994</v>
       </c>
       <c r="K31" t="n">
-        <v>-22.58064516129006</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L31" t="n">
         <v>9.013999999999996</v>
@@ -1860,7 +1882,7 @@
         <v>0.4699999999999935</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.677419354838598</v>
+        <v>-40</v>
       </c>
       <c r="L32" t="n">
         <v>9.016999999999996</v>
@@ -1911,7 +1933,7 @@
         <v>0.4799999999999933</v>
       </c>
       <c r="K33" t="n">
-        <v>-13.33333333333318</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L33" t="n">
         <v>9.013999999999996</v>
@@ -1962,7 +1984,7 @@
         <v>0.529999999999994</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>12.50000000000097</v>
       </c>
       <c r="L34" t="n">
         <v>9.015999999999995</v>
@@ -2013,7 +2035,7 @@
         <v>0.5399999999999956</v>
       </c>
       <c r="K35" t="n">
-        <v>-2.857142857143321</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>9.016999999999996</v>
@@ -2064,7 +2086,7 @@
         <v>0.5499999999999972</v>
       </c>
       <c r="K36" t="n">
-        <v>5.882352941176901</v>
+        <v>5.882352941177331</v>
       </c>
       <c r="L36" t="n">
         <v>9.017999999999995</v>
@@ -2115,7 +2137,7 @@
         <v>0.5999999999999979</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.263157894736744</v>
+        <v>-14.2857142857138</v>
       </c>
       <c r="L37" t="n">
         <v>9.013999999999996</v>
@@ -2166,7 +2188,7 @@
         <v>0.6499999999999986</v>
       </c>
       <c r="K38" t="n">
-        <v>6.976744186046781</v>
+        <v>12.00000000000028</v>
       </c>
       <c r="L38" t="n">
         <v>9.015999999999995</v>
@@ -2217,7 +2239,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K39" t="n">
-        <v>-4.166666666666574</v>
+        <v>3.703703703703558</v>
       </c>
       <c r="L39" t="n">
         <v>9.013999999999996</v>
@@ -2268,7 +2290,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.166666666666574</v>
+        <v>11.99999999999949</v>
       </c>
       <c r="L40" t="n">
         <v>9.014999999999997</v>
@@ -2319,7 +2341,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.38297872340411</v>
+        <v>4.347826086956321</v>
       </c>
       <c r="L41" t="n">
         <v>9.017999999999997</v>
@@ -2370,7 +2392,7 @@
         <v>0.7099999999999991</v>
       </c>
       <c r="K42" t="n">
-        <v>7.317073170731517</v>
+        <v>-4.347826086956321</v>
       </c>
       <c r="L42" t="n">
         <v>9.017999999999997</v>
@@ -2421,7 +2443,7 @@
         <v>0.75</v>
       </c>
       <c r="K43" t="n">
-        <v>-21.05263157894715</v>
+        <v>-45.45454545454486</v>
       </c>
       <c r="L43" t="n">
         <v>9.012999999999996</v>
@@ -2472,7 +2494,7 @@
         <v>0.7599999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.0769230769228</v>
+        <v>-45.45454545454442</v>
       </c>
       <c r="L44" t="n">
         <v>9.001999999999997</v>
@@ -2523,7 +2545,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-24.99999999999967</v>
+        <v>-54.5454545454544</v>
       </c>
       <c r="L45" t="n">
         <v>8.990999999999996</v>
@@ -2574,7 +2596,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.695652173912775</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>8.985999999999997</v>
@@ -2625,7 +2647,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-8.695652173912775</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L47" t="n">
         <v>8.985999999999997</v>
@@ -2676,7 +2698,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-6.666666666666456</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>8.980999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>-15.99999999999985</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L49" t="n">
         <v>8.974999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-12.49999999999995</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>8.967999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>1.01</v>
       </c>
       <c r="K51" t="n">
-        <v>10.71428571428537</v>
+        <v>13.33333333333302</v>
       </c>
       <c r="L51" t="n">
         <v>8.970999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>1.1</v>
       </c>
       <c r="K52" t="n">
-        <v>-7.936507936507972</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L52" t="n">
         <v>8.965999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>1.119999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.4999999999999</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L53" t="n">
         <v>8.962999999999997</v>
@@ -2982,7 +3004,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.462686567164227</v>
+        <v>16.27906976744194</v>
       </c>
       <c r="L54" t="n">
         <v>8.968999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>1.319999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-20.51282051282023</v>
+        <v>-24.99999999999991</v>
       </c>
       <c r="L55" t="n">
         <v>8.963999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>1.389999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.90476190476208</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L56" t="n">
         <v>8.959</v>
@@ -3135,7 +3157,7 @@
         <v>1.409999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>-8.641975308642023</v>
+        <v>-12.28070175438608</v>
       </c>
       <c r="L57" t="n">
         <v>8.951999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>1.419999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>-16.88311688311703</v>
+        <v>-3.846153846153793</v>
       </c>
       <c r="L58" t="n">
         <v>8.943999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>1.479999999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.564102564102518</v>
+        <v>8.771929824561578</v>
       </c>
       <c r="L59" t="n">
         <v>8.947999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>1.479999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.564102564102518</v>
+        <v>-10.63829787234027</v>
       </c>
       <c r="L60" t="n">
         <v>8.952999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>1.489999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.265822784810104</v>
+        <v>12.8205128205131</v>
       </c>
       <c r="L61" t="n">
         <v>8.949</v>
@@ -3390,7 +3412,7 @@
         <v>1.489999999999997</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>18.91891891891913</v>
       </c>
       <c r="L62" t="n">
         <v>8.953999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>1.509999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>7.894736842105369</v>
+        <v>3.225806451612866</v>
       </c>
       <c r="L63" t="n">
         <v>8.962999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>1.689999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>-11.8279569892473</v>
+        <v>-13.5135135135138</v>
       </c>
       <c r="L64" t="n">
         <v>8.946</v>
@@ -3543,7 +3565,7 @@
         <v>1.709999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>-8.510638297872385</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L65" t="n">
         <v>8.943</v>
@@ -3594,7 +3616,7 @@
         <v>1.809999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.15463917525783</v>
+        <v>4.999999999999911</v>
       </c>
       <c r="L66" t="n">
         <v>8.943</v>
@@ -3645,7 +3667,7 @@
         <v>1.809999999999995</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.15463917525783</v>
+        <v>7.692307692307552</v>
       </c>
       <c r="L67" t="n">
         <v>8.944999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>1.859999999999994</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.803921568627471</v>
+        <v>-21.05263157894754</v>
       </c>
       <c r="L68" t="n">
         <v>8.943</v>
@@ -3747,7 +3769,7 @@
         <v>1.859999999999994</v>
       </c>
       <c r="K69" t="n">
-        <v>-4.166666666666605</v>
+        <v>-21.05263157894754</v>
       </c>
       <c r="L69" t="n">
         <v>8.934999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>1.979999999999993</v>
       </c>
       <c r="K70" t="n">
-        <v>8.411214953271068</v>
+        <v>6.122448979591748</v>
       </c>
       <c r="L70" t="n">
         <v>8.938999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>2.069999999999993</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.433962264150969</v>
+        <v>-10.34482758620704</v>
       </c>
       <c r="L71" t="n">
         <v>8.933</v>
@@ -3900,7 +3922,7 @@
         <v>2.159999999999993</v>
       </c>
       <c r="K72" t="n">
-        <v>7.547169811320808</v>
+        <v>1.538461538461513</v>
       </c>
       <c r="L72" t="n">
         <v>8.936</v>
@@ -3951,7 +3973,7 @@
         <v>2.249999999999993</v>
       </c>
       <c r="K73" t="n">
-        <v>0.8849557522123754</v>
+        <v>17.85714285714289</v>
       </c>
       <c r="L73" t="n">
         <v>8.927999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>2.329999999999993</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8849557522123754</v>
+        <v>25.80645161290335</v>
       </c>
       <c r="L74" t="n">
         <v>8.946</v>
@@ -4053,7 +4075,7 @@
         <v>2.339999999999993</v>
       </c>
       <c r="K75" t="n">
-        <v>11.76470588235293</v>
+        <v>9.43396226415112</v>
       </c>
       <c r="L75" t="n">
         <v>8.961</v>
@@ -4104,7 +4126,7 @@
         <v>2.339999999999993</v>
       </c>
       <c r="K76" t="n">
-        <v>5.26315789473694</v>
+        <v>9.43396226415112</v>
       </c>
       <c r="L76" t="n">
         <v>8.965999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>2.349999999999993</v>
       </c>
       <c r="K77" t="n">
-        <v>8.510638297872385</v>
+        <v>22.44897959183669</v>
       </c>
       <c r="L77" t="n">
         <v>8.972</v>
@@ -4206,7 +4228,7 @@
         <v>2.359999999999992</v>
       </c>
       <c r="K78" t="n">
-        <v>8.510638297872385</v>
+        <v>20</v>
       </c>
       <c r="L78" t="n">
         <v>8.981999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>2.359999999999992</v>
       </c>
       <c r="K79" t="n">
-        <v>2.272727272727236</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L79" t="n">
         <v>8.991999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>2.359999999999992</v>
       </c>
       <c r="K80" t="n">
-        <v>2.272727272727236</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L80" t="n">
         <v>8.989999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>2.369999999999992</v>
       </c>
       <c r="K81" t="n">
-        <v>2.272727272727236</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L81" t="n">
         <v>8.997999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>2.389999999999992</v>
       </c>
       <c r="K82" t="n">
-        <v>4.444444444444374</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L82" t="n">
         <v>8.998999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>2.389999999999992</v>
       </c>
       <c r="K83" t="n">
-        <v>2.272727272727236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>9.009</v>
@@ -4512,7 +4534,7 @@
         <v>2.389999999999992</v>
       </c>
       <c r="K84" t="n">
-        <v>28.57142857142864</v>
+        <v>60</v>
       </c>
       <c r="L84" t="n">
         <v>9.010999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K85" t="n">
-        <v>24.63768115942042</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>9.013</v>
@@ -4614,7 +4636,7 @@
         <v>2.409999999999991</v>
       </c>
       <c r="K86" t="n">
-        <v>10.00000000000015</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>9.013999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>2.429999999999991</v>
       </c>
       <c r="K87" t="n">
-        <v>12.90322580645172</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L87" t="n">
         <v>9.016</v>
@@ -4716,7 +4738,7 @@
         <v>2.439999999999991</v>
       </c>
       <c r="K88" t="n">
-        <v>24.1379310344827</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
         <v>9.02</v>
@@ -4767,7 +4789,7 @@
         <v>2.449999999999992</v>
       </c>
       <c r="K89" t="n">
-        <v>25.42372881355946</v>
+        <v>55.55555555555644</v>
       </c>
       <c r="L89" t="n">
         <v>9.024999999999999</v>
@@ -4818,7 +4840,7 @@
         <v>2.479999999999992</v>
       </c>
       <c r="K90" t="n">
-        <v>12.00000000000014</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L90" t="n">
         <v>9.032999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>2.499999999999991</v>
       </c>
       <c r="K91" t="n">
-        <v>39.53488372093041</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L91" t="n">
         <v>9.041999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>2.499999999999991</v>
       </c>
       <c r="K92" t="n">
-        <v>23.52941176470603</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L92" t="n">
         <v>9.048999999999996</v>
@@ -4971,7 +4993,7 @@
         <v>2.619999999999992</v>
       </c>
       <c r="K93" t="n">
-        <v>78.3783783783788</v>
+        <v>82.60869565217432</v>
       </c>
       <c r="L93" t="n">
         <v>9.067999999999996</v>
@@ -5022,7 +5044,7 @@
         <v>2.699999999999992</v>
       </c>
       <c r="K94" t="n">
-        <v>78.3783783783788</v>
+        <v>93.33333333333348</v>
       </c>
       <c r="L94" t="n">
         <v>9.094999999999995</v>
@@ -5073,7 +5095,7 @@
         <v>2.799999999999992</v>
       </c>
       <c r="K95" t="n">
-        <v>86.95652173913069</v>
+        <v>100</v>
       </c>
       <c r="L95" t="n">
         <v>9.132999999999997</v>
@@ -5124,7 +5146,7 @@
         <v>2.889999999999992</v>
       </c>
       <c r="K96" t="n">
-        <v>56.36363636363656</v>
+        <v>60.86956521739144</v>
       </c>
       <c r="L96" t="n">
         <v>9.162999999999997</v>
@@ -5175,7 +5197,7 @@
         <v>2.969999999999992</v>
       </c>
       <c r="K97" t="n">
-        <v>61.29032258064536</v>
+        <v>66.03773584905673</v>
       </c>
       <c r="L97" t="n">
         <v>9.198999999999996</v>
@@ -5226,7 +5248,7 @@
         <v>2.979999999999992</v>
       </c>
       <c r="K98" t="n">
-        <v>64.51612903225821</v>
+        <v>66.03773584905662</v>
       </c>
       <c r="L98" t="n">
         <v>9.234999999999996</v>
@@ -5277,7 +5299,7 @@
         <v>2.989999999999991</v>
       </c>
       <c r="K99" t="n">
-        <v>61.9047619047621</v>
+        <v>60.78431372549032</v>
       </c>
       <c r="L99" t="n">
         <v>9.268999999999997</v>
@@ -5328,7 +5350,7 @@
         <v>2.989999999999991</v>
       </c>
       <c r="K100" t="n">
-        <v>61.9047619047621</v>
+        <v>59.18367346938792</v>
       </c>
       <c r="L100" t="n">
         <v>9.299999999999997</v>
@@ -5379,7 +5401,7 @@
         <v>2.999999999999991</v>
       </c>
       <c r="K101" t="n">
-        <v>61.9047619047621</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L101" t="n">
         <v>9.329999999999998</v>
@@ -5430,7 +5452,7 @@
         <v>3.029999999999992</v>
       </c>
       <c r="K102" t="n">
-        <v>53.12499999999994</v>
+        <v>36.58536585365817</v>
       </c>
       <c r="L102" t="n">
         <v>9.356999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>3.029999999999992</v>
       </c>
       <c r="K103" t="n">
-        <v>53.12499999999994</v>
+        <v>21.21212121212076</v>
       </c>
       <c r="L103" t="n">
         <v>9.372</v>
@@ -5532,7 +5554,7 @@
         <v>3.039999999999992</v>
       </c>
       <c r="K104" t="n">
-        <v>50.76923076923075</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L104" t="n">
         <v>9.378</v>
@@ -5583,7 +5605,7 @@
         <v>3.039999999999992</v>
       </c>
       <c r="K105" t="n">
-        <v>53.12499999999994</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L105" t="n">
         <v>9.373999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>3.049999999999992</v>
       </c>
       <c r="K106" t="n">
-        <v>53.12499999999994</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L106" t="n">
         <v>9.377999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>3.129999999999992</v>
       </c>
       <c r="K107" t="n">
-        <v>34.28571428571426</v>
+        <v>-86.66666666666698</v>
       </c>
       <c r="L107" t="n">
         <v>9.365999999999998</v>
@@ -5736,7 +5758,7 @@
         <v>3.189999999999992</v>
       </c>
       <c r="K108" t="n">
-        <v>38.6666666666667</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L108" t="n">
         <v>9.358999999999998</v>
@@ -5787,7 +5809,7 @@
         <v>3.249999999999993</v>
       </c>
       <c r="K109" t="n">
-        <v>27.49999999999984</v>
+        <v>-46.15384615384626</v>
       </c>
       <c r="L109" t="n">
         <v>9.346999999999998</v>
@@ -5838,7 +5860,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K110" t="n">
-        <v>29.26829268292678</v>
+        <v>-26.66666666666647</v>
       </c>
       <c r="L110" t="n">
         <v>9.339999999999996</v>
@@ -5889,7 +5911,7 @@
         <v>3.319999999999993</v>
       </c>
       <c r="K111" t="n">
-        <v>29.26829268292678</v>
+        <v>-10.34482758620664</v>
       </c>
       <c r="L111" t="n">
         <v>9.333999999999996</v>
@@ -5940,7 +5962,7 @@
         <v>3.409999999999993</v>
       </c>
       <c r="K112" t="n">
-        <v>16.48351648351649</v>
+        <v>-31.57894736842078</v>
       </c>
       <c r="L112" t="n">
         <v>9.321999999999996</v>
@@ -5991,7 +6013,7 @@
         <v>3.479999999999993</v>
       </c>
       <c r="K113" t="n">
-        <v>11.62790697674413</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L113" t="n">
         <v>9.316999999999997</v>
@@ -6042,7 +6064,7 @@
         <v>3.489999999999993</v>
       </c>
       <c r="K114" t="n">
-        <v>3.797468354430294</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L114" t="n">
         <v>9.313999999999997</v>
@@ -6093,7 +6115,7 @@
         <v>3.489999999999993</v>
       </c>
       <c r="K115" t="n">
-        <v>-10.14492753623191</v>
+        <v>-4.545454545454435</v>
       </c>
       <c r="L115" t="n">
         <v>9.310999999999996</v>
@@ -6144,7 +6166,7 @@
         <v>3.489999999999993</v>
       </c>
       <c r="K116" t="n">
-        <v>3.333333333333254</v>
+        <v>16.66666666666675</v>
       </c>
       <c r="L116" t="n">
         <v>9.308999999999996</v>
@@ -6195,7 +6217,7 @@
         <v>3.499999999999993</v>
       </c>
       <c r="K117" t="n">
-        <v>-9.433962264151058</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L117" t="n">
         <v>9.315999999999997</v>
@@ -6246,7 +6268,7 @@
         <v>3.549999999999994</v>
       </c>
       <c r="K118" t="n">
-        <v>-19.29824561403523</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L118" t="n">
         <v>9.311999999999996</v>
@@ -6297,7 +6319,7 @@
         <v>3.549999999999994</v>
       </c>
       <c r="K119" t="n">
-        <v>-17.85714285714304</v>
+        <v>-12.00000000000045</v>
       </c>
       <c r="L119" t="n">
         <v>9.313999999999997</v>
@@ -6348,7 +6370,7 @@
         <v>3.559999999999993</v>
       </c>
       <c r="K120" t="n">
-        <v>-19.29824561403523</v>
+        <v>-25.00000000000018</v>
       </c>
       <c r="L120" t="n">
         <v>9.309999999999997</v>
@@ -6399,7 +6421,7 @@
         <v>3.569999999999993</v>
       </c>
       <c r="K121" t="n">
-        <v>-19.29824561403523</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L121" t="n">
         <v>9.304999999999996</v>
@@ -6450,7 +6472,7 @@
         <v>3.569999999999993</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.8148148148148</v>
+        <v>-33.33333333333465</v>
       </c>
       <c r="L122" t="n">
         <v>9.308999999999994</v>
@@ -6501,7 +6523,7 @@
         <v>3.609999999999994</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.896551724137762</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>9.309999999999993</v>
@@ -6552,7 +6574,7 @@
         <v>3.609999999999994</v>
       </c>
       <c r="K124" t="n">
-        <v>-5.263157894736711</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>9.309999999999993</v>
@@ -6603,7 +6625,7 @@
         <v>3.609999999999994</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.263157894736711</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>9.309999999999993</v>
@@ -6654,7 +6676,7 @@
         <v>3.669999999999995</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.90322580645157</v>
+        <v>-41.17647058823505</v>
       </c>
       <c r="L126" t="n">
         <v>9.303999999999993</v>
@@ -6705,7 +6727,7 @@
         <v>3.729999999999995</v>
       </c>
       <c r="K127" t="n">
-        <v>10.00000000000003</v>
+        <v>22.22222222222255</v>
       </c>
       <c r="L127" t="n">
         <v>9.302999999999994</v>
@@ -6756,7 +6778,7 @@
         <v>3.749999999999995</v>
       </c>
       <c r="K128" t="n">
-        <v>3.571428571428481</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L128" t="n">
         <v>9.308999999999992</v>
@@ -6807,7 +6829,7 @@
         <v>3.749999999999995</v>
       </c>
       <c r="K129" t="n">
-        <v>15.99999999999996</v>
+        <v>36.8421052631578</v>
       </c>
       <c r="L129" t="n">
         <v>9.314999999999992</v>
@@ -6858,7 +6880,7 @@
         <v>3.779999999999996</v>
       </c>
       <c r="K130" t="n">
-        <v>12.50000000000005</v>
+        <v>42.8571428571431</v>
       </c>
       <c r="L130" t="n">
         <v>9.324999999999992</v>
@@ -6909,7 +6931,7 @@
         <v>3.779999999999996</v>
       </c>
       <c r="K131" t="n">
-        <v>8.695652173913194</v>
+        <v>42.8571428571431</v>
       </c>
       <c r="L131" t="n">
         <v>9.333999999999993</v>
@@ -6960,7 +6982,7 @@
         <v>3.779999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>35.13513513513508</v>
+        <v>29.41176470588248</v>
       </c>
       <c r="L132" t="n">
         <v>9.342999999999993</v>
@@ -7011,7 +7033,7 @@
         <v>3.809999999999997</v>
       </c>
       <c r="K133" t="n">
-        <v>9.090909090908797</v>
+        <v>9.999999999999645</v>
       </c>
       <c r="L133" t="n">
         <v>9.344999999999992</v>
@@ -7062,7 +7084,7 @@
         <v>4.019999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>43.39622641509403</v>
+        <v>56.09756097560935</v>
       </c>
       <c r="L134" t="n">
         <v>9.367999999999991</v>
@@ -7113,7 +7135,7 @@
         <v>4.029999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>44.44444444444412</v>
+        <v>83.33333333333283</v>
       </c>
       <c r="L135" t="n">
         <v>9.391999999999992</v>
@@ -7164,7 +7186,7 @@
         <v>4.079999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>32.20338983050811</v>
+        <v>54.28571428571365</v>
       </c>
       <c r="L136" t="n">
         <v>9.416999999999991</v>
@@ -7215,7 +7237,7 @@
         <v>4.149999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>16.92307692307669</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L137" t="n">
         <v>9.428999999999991</v>
@@ -7266,7 +7288,7 @@
         <v>4.17</v>
       </c>
       <c r="K138" t="n">
-        <v>29.03225806451607</v>
+        <v>28.57142857142845</v>
       </c>
       <c r="L138" t="n">
         <v>9.440999999999992</v>
@@ -7317,7 +7339,7 @@
         <v>4.279999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>39.72602739726009</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L139" t="n">
         <v>9.463999999999993</v>
@@ -7368,7 +7390,7 @@
         <v>4.309999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>35.99999999999993</v>
+        <v>32.07547169811302</v>
       </c>
       <c r="L140" t="n">
         <v>9.480999999999993</v>
@@ -7419,7 +7441,7 @@
         <v>4.33</v>
       </c>
       <c r="K141" t="n">
-        <v>31.5789473684208</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L141" t="n">
         <v>9.495999999999993</v>
@@ -7470,7 +7492,7 @@
         <v>4.41</v>
       </c>
       <c r="K142" t="n">
-        <v>19.04761904761891</v>
+        <v>16.66666666666652</v>
       </c>
       <c r="L142" t="n">
         <v>9.502999999999995</v>
@@ -7521,7 +7543,7 @@
         <v>4.41</v>
       </c>
       <c r="K143" t="n">
-        <v>14.99999999999979</v>
+        <v>-28.20512820512834</v>
       </c>
       <c r="L143" t="n">
         <v>9.512999999999995</v>
@@ -7572,7 +7594,7 @@
         <v>4.460000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>19.99999999999983</v>
+        <v>-16.2790697674418</v>
       </c>
       <c r="L144" t="n">
         <v>9.506999999999994</v>
@@ -7623,7 +7645,7 @@
         <v>4.460000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>19.99999999999983</v>
+        <v>-5.263157894736695</v>
       </c>
       <c r="L145" t="n">
         <v>9.499999999999995</v>
@@ -7674,7 +7696,7 @@
         <v>4.48</v>
       </c>
       <c r="K146" t="n">
-        <v>25.92592592592585</v>
+        <v>9.090909090909385</v>
       </c>
       <c r="L146" t="n">
         <v>9.495999999999995</v>
@@ -7725,7 +7747,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>15.38461538461516</v>
+        <v>-5.88235294117684</v>
       </c>
       <c r="L147" t="n">
         <v>9.495999999999995</v>
@@ -7776,7 +7798,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>13.15789473684194</v>
+        <v>-56.52173913043458</v>
       </c>
       <c r="L148" t="n">
         <v>9.493999999999996</v>
@@ -7827,7 +7849,7 @@
         <v>4.57</v>
       </c>
       <c r="K149" t="n">
-        <v>4.878048780487884</v>
+        <v>-61.53846153846122</v>
       </c>
       <c r="L149" t="n">
         <v>9.474999999999996</v>
@@ -7878,7 +7900,7 @@
         <v>4.629999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>8.235294117646852</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L150" t="n">
         <v>9.464999999999996</v>
@@ -7929,7 +7951,7 @@
         <v>4.68</v>
       </c>
       <c r="K151" t="n">
-        <v>13.33333333333319</v>
+        <v>18.51851851851881</v>
       </c>
       <c r="L151" t="n">
         <v>9.461999999999996</v>
@@ -7980,7 +8002,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>10.86956521739122</v>
+        <v>10.34482758620732</v>
       </c>
       <c r="L152" t="n">
         <v>9.464999999999996</v>
@@ -8031,7 +8053,7 @@
         <v>4.739999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>18.27956989247308</v>
+        <v>7.142857142857053</v>
       </c>
       <c r="L153" t="n">
         <v>9.471999999999996</v>
@@ -8082,7 +8104,7 @@
         <v>4.789999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>1.298701298701269</v>
+        <v>21.21212121212141</v>
       </c>
       <c r="L154" t="n">
         <v>9.478999999999996</v>
@@ -8133,7 +8155,7 @@
         <v>4.879999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>10.58823529411761</v>
+        <v>45.00000000000009</v>
       </c>
       <c r="L155" t="n">
         <v>9.494999999999996</v>
@@ -8184,7 +8206,7 @@
         <v>4.949999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>8.045977011494276</v>
+        <v>31.81818181818211</v>
       </c>
       <c r="L156" t="n">
         <v>9.505999999999997</v>
@@ -8235,7 +8257,7 @@
         <v>4.959999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>16.04938271604947</v>
+        <v>28.88888888888922</v>
       </c>
       <c r="L157" t="n">
         <v>9.518999999999995</v>
@@ -8286,7 +8308,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>16.00000000000007</v>
       </c>
       <c r="L158" t="n">
         <v>9.520999999999995</v>
@@ -8337,7 +8359,7 @@
         <v>5.179999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>23.63636363636382</v>
       </c>
       <c r="L159" t="n">
         <v>9.539999999999996</v>
@@ -8388,7 +8410,7 @@
         <v>5.279999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-7.216494845360863</v>
+        <v>-3.333333333333274</v>
       </c>
       <c r="L160" t="n">
         <v>9.542999999999996</v>
@@ -8439,7 +8461,7 @@
         <v>5.319999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909092</v>
+        <v>-6.451612903225963</v>
       </c>
       <c r="L161" t="n">
         <v>9.536999999999995</v>
@@ -8490,7 +8512,7 @@
         <v>5.359999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>3.157894736842227</v>
+        <v>-6.45161290322566</v>
       </c>
       <c r="L162" t="n">
         <v>9.536999999999995</v>
@@ -8541,7 +8563,7 @@
         <v>5.369999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>4.166666666666767</v>
+        <v>-13.79310344827587</v>
       </c>
       <c r="L163" t="n">
         <v>9.533999999999995</v>
@@ -8592,7 +8614,7 @@
         <v>5.42</v>
       </c>
       <c r="K164" t="n">
-        <v>-6.250000000000059</v>
+        <v>-40.74074074074079</v>
       </c>
       <c r="L164" t="n">
         <v>9.520999999999995</v>
@@ -8643,7 +8665,7 @@
         <v>5.459999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.999999999999982</v>
+        <v>-37.25490196078423</v>
       </c>
       <c r="L165" t="n">
         <v>9.494999999999996</v>
@@ -8694,7 +8716,7 @@
         <v>5.539999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L166" t="n">
         <v>9.483999999999996</v>
@@ -8745,7 +8767,7 @@
         <v>5.539999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>2.912621359223418</v>
+        <v>2.127659574468037</v>
       </c>
       <c r="L167" t="n">
         <v>9.473999999999997</v>
@@ -8796,7 +8818,7 @@
         <v>5.549999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>1.923076923077058</v>
+        <v>-29.7297297297295</v>
       </c>
       <c r="L168" t="n">
         <v>9.473999999999997</v>
@@ -8847,7 +8869,7 @@
         <v>5.559999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>9.463999999999997</v>
@@ -8898,7 +8920,7 @@
         <v>5.629999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.999999999999915</v>
+        <v>-9.677419354838488</v>
       </c>
       <c r="L170" t="n">
         <v>9.456999999999997</v>
@@ -8949,7 +8971,7 @@
         <v>5.629999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>-9.473684210526308</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L171" t="n">
         <v>9.453999999999997</v>
@@ -9000,7 +9022,7 @@
         <v>5.629999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-7.52688172043014</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L172" t="n">
         <v>9.446999999999996</v>
@@ -9051,7 +9073,7 @@
         <v>5.789999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>4.761904761904826</v>
+        <v>35.13513513513542</v>
       </c>
       <c r="L173" t="n">
         <v>9.454999999999997</v>
@@ -9102,7 +9124,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>-0.9900990099009691</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L174" t="n">
         <v>9.466999999999997</v>
@@ -9153,7 +9175,7 @@
         <v>5.859999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-16.32653061224491</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L175" t="n">
         <v>9.476999999999997</v>
@@ -9204,7 +9226,7 @@
         <v>5.869999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-8.695652173913052</v>
+        <v>9.090909090908896</v>
       </c>
       <c r="L176" t="n">
         <v>9.479999999999997</v>
@@ -9255,7 +9277,7 @@
         <v>6.01</v>
       </c>
       <c r="K177" t="n">
-        <v>6.666666666666689</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L177" t="n">
         <v>9.496999999999996</v>
@@ -9306,7 +9328,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>20.83333333333324</v>
+        <v>40.42553191489346</v>
       </c>
       <c r="L178" t="n">
         <v>9.516999999999998</v>
@@ -9357,7 +9379,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>10.58823529411761</v>
+        <v>64.99999999999989</v>
       </c>
       <c r="L179" t="n">
         <v>9.535999999999998</v>
@@ -9408,7 +9430,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>25.33333333333321</v>
+        <v>64.99999999999989</v>
       </c>
       <c r="L180" t="n">
         <v>9.561999999999998</v>
@@ -9459,7 +9481,7 @@
         <v>6.039999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>65.85365853658523</v>
       </c>
       <c r="L181" t="n">
         <v>9.588999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>6.039999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>29.41176470588226</v>
+        <v>43.99999999999977</v>
       </c>
       <c r="L182" t="n">
         <v>9.616</v>
@@ -9561,7 +9583,7 @@
         <v>6.069999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>22.8571428571429</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>9.624000000000001</v>
@@ -9612,7 +9634,7 @@
         <v>6.079999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>30.30303030303054</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L184" t="n">
         <v>9.632000000000001</v>
@@ -9663,7 +9685,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>40.62500000000004</v>
+        <v>65.21739130434835</v>
       </c>
       <c r="L185" t="n">
         <v>9.648</v>
@@ -9714,7 +9736,7 @@
         <v>6.119999999999997</v>
       </c>
       <c r="K186" t="n">
-        <v>27.58620689655183</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L186" t="n">
         <v>9.661</v>
@@ -9765,7 +9787,7 @@
         <v>6.129999999999997</v>
       </c>
       <c r="K187" t="n">
-        <v>25.42372881355946</v>
+        <v>-40</v>
       </c>
       <c r="L187" t="n">
         <v>9.658999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>6.159999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>21.31147540983592</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L188" t="n">
         <v>9.651999999999997</v>
@@ -9867,7 +9889,7 @@
         <v>6.159999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>19.99999999999988</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L189" t="n">
         <v>9.644999999999998</v>
@@ -9918,7 +9940,7 @@
         <v>6.249999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>16.12903225806448</v>
+        <v>-80.95238095238128</v>
       </c>
       <c r="L190" t="n">
         <v>9.628999999999998</v>
@@ -9969,7 +9991,7 @@
         <v>6.279999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>10.76923076923084</v>
+        <v>-83.33333333333358</v>
       </c>
       <c r="L191" t="n">
         <v>9.608999999999998</v>
@@ -10020,7 +10042,7 @@
         <v>6.359999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>-1.369863013698603</v>
+        <v>-86.20689655172438</v>
       </c>
       <c r="L192" t="n">
         <v>9.580999999999998</v>
@@ -10071,7 +10093,7 @@
         <v>6.429999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>-15.62499999999998</v>
+        <v>-48.5714285714286</v>
       </c>
       <c r="L193" t="n">
         <v>9.562999999999997</v>
@@ -10122,7 +10144,7 @@
         <v>6.439999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-15.62499999999998</v>
+        <v>-58.82352941176452</v>
       </c>
       <c r="L194" t="n">
         <v>9.544999999999998</v>
@@ -10173,7 +10195,7 @@
         <v>6.439999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>-6.896551724137804</v>
+        <v>-56.24999999999986</v>
       </c>
       <c r="L195" t="n">
         <v>9.524999999999997</v>
@@ -10224,7 +10246,7 @@
         <v>6.439999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>-8.771929824561239</v>
+        <v>-54.83870967741924</v>
       </c>
       <c r="L196" t="n">
         <v>9.506999999999998</v>
@@ -10275,7 +10297,7 @@
         <v>6.439999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-44.186046511628</v>
+        <v>-49.99999999999968</v>
       </c>
       <c r="L197" t="n">
         <v>9.489999999999998</v>
@@ -10326,7 +10348,7 @@
         <v>6.479999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>-55.55555555555565</v>
+        <v>-56.24999999999986</v>
       </c>
       <c r="L198" t="n">
         <v>9.471999999999998</v>
@@ -10377,7 +10399,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-57.44680851063835</v>
+        <v>-43.99999999999977</v>
       </c>
       <c r="L199" t="n">
         <v>9.452</v>
@@ -10428,7 +10450,7 @@
         <v>6.519999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>-51.02040816326547</v>
+        <v>-25.00000000000018</v>
       </c>
       <c r="L200" t="n">
         <v>9.443</v>
@@ -10479,7 +10501,7 @@
         <v>6.539999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>-56.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>9.434999999999999</v>
@@ -10530,7 +10552,7 @@
         <v>6.549999999999997</v>
       </c>
       <c r="K202" t="n">
-        <v>-52.94117647058836</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L202" t="n">
         <v>9.435999999999998</v>
@@ -10581,7 +10603,7 @@
         <v>6.549999999999997</v>
       </c>
       <c r="K203" t="n">
-        <v>-50.00000000000019</v>
+        <v>-45.45454545454633</v>
       </c>
       <c r="L203" t="n">
         <v>9.429999999999998</v>
@@ -10632,7 +10654,7 @@
         <v>6.559999999999997</v>
       </c>
       <c r="K204" t="n">
-        <v>-50.00000000000019</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L204" t="n">
         <v>9.423999999999998</v>
@@ -10683,7 +10705,7 @@
         <v>6.569999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>-57.44680851063835</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L205" t="n">
         <v>9.416999999999998</v>
@@ -10734,7 +10756,7 @@
         <v>6.659999999999997</v>
       </c>
       <c r="K206" t="n">
-        <v>-29.6296296296297</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L206" t="n">
         <v>9.419</v>
@@ -10785,7 +10807,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K207" t="n">
-        <v>-37.70491803278698</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L207" t="n">
         <v>9.413</v>
@@ -10836,7 +10858,7 @@
         <v>6.739999999999997</v>
       </c>
       <c r="K208" t="n">
-        <v>-34.48275862068964</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>9.411</v>
@@ -10887,7 +10909,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K209" t="n">
-        <v>-21.87499999999985</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L209" t="n">
         <v>9.416999999999998</v>
@@ -10938,7 +10960,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-9.090909090908914</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L210" t="n">
         <v>9.420999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>6.819999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L211" t="n">
         <v>9.428999999999998</v>
@@ -11040,7 +11062,7 @@
         <v>6.879999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>3.846153846153767</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L212" t="n">
         <v>9.43</v>
@@ -11091,7 +11113,7 @@
         <v>6.889999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>-13.0434782608697</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L213" t="n">
         <v>9.43</v>
@@ -11142,7 +11164,7 @@
         <v>6.889999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111129</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L214" t="n">
         <v>9.430999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>6.969999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>-24.52830188679263</v>
+        <v>-48.38709677419358</v>
       </c>
       <c r="L215" t="n">
         <v>9.424999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>6.979999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-25.92592592592607</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>9.408999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>6.989999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>-27.27272727272739</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L217" t="n">
         <v>9.399999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>6.989999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>-21.56862745098037</v>
+        <v>-78.94736842105303</v>
       </c>
       <c r="L218" t="n">
         <v>9.390999999999998</v>
@@ -11397,7 +11419,7 @@
         <v>6.999999999999996</v>
       </c>
       <c r="K219" t="n">
-        <v>-16.00000000000007</v>
+        <v>-70.00000000000053</v>
       </c>
       <c r="L219" t="n">
         <v>9.376999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>7.009999999999996</v>
       </c>
       <c r="K220" t="n">
-        <v>-22.44897959183669</v>
+        <v>-89.47368421052651</v>
       </c>
       <c r="L220" t="n">
         <v>9.361999999999998</v>
@@ -11499,7 +11521,7 @@
         <v>7.119999999999996</v>
       </c>
       <c r="K221" t="n">
-        <v>3.448275862068902</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>9.355999999999998</v>
@@ -11550,7 +11572,7 @@
         <v>7.209999999999996</v>
       </c>
       <c r="K222" t="n">
-        <v>-12.12121212121216</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L222" t="n">
         <v>9.346999999999998</v>
@@ -11601,7 +11623,7 @@
         <v>7.219999999999995</v>
       </c>
       <c r="K223" t="n">
-        <v>-13.43283582089554</v>
+        <v>-27.27272727272737</v>
       </c>
       <c r="L223" t="n">
         <v>9.337999999999997</v>
@@ -11652,7 +11674,7 @@
         <v>7.229999999999995</v>
       </c>
       <c r="K224" t="n">
-        <v>-13.43283582089554</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L224" t="n">
         <v>9.327999999999998</v>
@@ -11703,7 +11725,7 @@
         <v>7.249999999999996</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.70588235294139</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L225" t="n">
         <v>9.323999999999996</v>
@@ -11754,7 +11776,7 @@
         <v>7.279999999999996</v>
       </c>
       <c r="K226" t="n">
-        <v>-35.48387096774208</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L226" t="n">
         <v>9.317999999999998</v>
@@ -11805,7 +11827,7 @@
         <v>7.279999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-25.92592592592607</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L227" t="n">
         <v>9.312999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>7.289999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>-23.63636363636382</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L228" t="n">
         <v>9.308999999999997</v>
@@ -11907,7 +11929,7 @@
         <v>7.369999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-19.29824561403535</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L229" t="n">
         <v>9.311999999999998</v>
@@ -11958,7 +11980,7 @@
         <v>7.519999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>-36.11111111111138</v>
+        <v>-55.00000000000011</v>
       </c>
       <c r="L230" t="n">
         <v>9.300999999999998</v>
@@ -12009,7 +12031,7 @@
         <v>7.529999999999996</v>
       </c>
       <c r="K231" t="n">
-        <v>-40.84507042253539</v>
+        <v>-43.75000000000014</v>
       </c>
       <c r="L231" t="n">
         <v>9.277999999999997</v>
@@ -12060,7 +12082,7 @@
         <v>7.529999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>-35.38461538461553</v>
+        <v>-41.93548387096793</v>
       </c>
       <c r="L232" t="n">
         <v>9.263999999999998</v>
@@ -12111,7 +12133,7 @@
         <v>7.529999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>-34.37500000000016</v>
+        <v>-40.00000000000023</v>
       </c>
       <c r="L233" t="n">
         <v>9.250999999999996</v>
@@ -12162,7 +12184,7 @@
         <v>7.539999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>-32.30769230769251</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L234" t="n">
         <v>9.239999999999997</v>
@@ -12213,7 +12235,7 @@
         <v>7.539999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>-22.80701754385985</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L235" t="n">
         <v>9.230999999999998</v>
@@ -12264,7 +12286,7 @@
         <v>7.609999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>-7.936507936508062</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L236" t="n">
         <v>9.231999999999996</v>
@@ -12315,7 +12337,7 @@
         <v>7.629999999999995</v>
       </c>
       <c r="K237" t="n">
-        <v>-9.375000000000096</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L237" t="n">
         <v>9.230999999999996</v>
@@ -12366,7 +12388,7 @@
         <v>7.689999999999996</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L238" t="n">
         <v>9.234999999999996</v>
@@ -12417,7 +12439,7 @@
         <v>7.769999999999996</v>
       </c>
       <c r="K239" t="n">
-        <v>-11.68831168831168</v>
+        <v>12.00000000000045</v>
       </c>
       <c r="L239" t="n">
         <v>9.222999999999997</v>
@@ -12468,7 +12490,7 @@
         <v>7.769999999999996</v>
       </c>
       <c r="K240" t="n">
-        <v>-10.5263157894737</v>
+        <v>16.66666666666704</v>
       </c>
       <c r="L240" t="n">
         <v>9.225999999999997</v>
@@ -12519,7 +12541,7 @@
         <v>7.819999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>-20.0000000000001</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L241" t="n">
         <v>9.234999999999998</v>
@@ -12570,7 +12592,7 @@
         <v>7.869999999999994</v>
       </c>
       <c r="K242" t="n">
-        <v>-15.15151515151513</v>
+        <v>11.76470588235328</v>
       </c>
       <c r="L242" t="n">
         <v>9.238999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>7.869999999999994</v>
       </c>
       <c r="K243" t="n">
-        <v>-13.84615384615386</v>
+        <v>9.090909090909483</v>
       </c>
       <c r="L243" t="n">
         <v>9.242999999999999</v>
@@ -12672,7 +12694,7 @@
         <v>7.889999999999993</v>
       </c>
       <c r="K244" t="n">
-        <v>-15.15151515151513</v>
+        <v>2.857142857143321</v>
       </c>
       <c r="L244" t="n">
         <v>9.243999999999998</v>
@@ -12723,7 +12745,7 @@
         <v>7.889999999999993</v>
       </c>
       <c r="K245" t="n">
-        <v>-12.49999999999979</v>
+        <v>-21.42857142857116</v>
       </c>
       <c r="L245" t="n">
         <v>9.244999999999997</v>
@@ -12774,7 +12796,7 @@
         <v>7.979999999999993</v>
       </c>
       <c r="K246" t="n">
-        <v>5.714285714285867</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L246" t="n">
         <v>9.247999999999998</v>
@@ -12825,7 +12847,7 @@
         <v>8.019999999999994</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>-15.15151515151545</v>
       </c>
       <c r="L247" t="n">
         <v>9.248999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>8.029999999999994</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>15.38461538461517</v>
       </c>
       <c r="L248" t="n">
         <v>9.244999999999997</v>
@@ -12927,7 +12949,7 @@
         <v>8.039999999999994</v>
       </c>
       <c r="K249" t="n">
-        <v>-13.43283582089554</v>
+        <v>11.11111111111097</v>
       </c>
       <c r="L249" t="n">
         <v>9.247999999999998</v>
@@ -12978,7 +13000,7 @@
         <v>8.069999999999993</v>
       </c>
       <c r="K250" t="n">
-        <v>16.36363636363642</v>
+        <v>3.999999999999943</v>
       </c>
       <c r="L250" t="n">
         <v>9.253999999999998</v>
@@ -13029,7 +13051,7 @@
         <v>8.069999999999993</v>
       </c>
       <c r="K251" t="n">
-        <v>18.51851851851854</v>
+        <v>29.99999999999947</v>
       </c>
       <c r="L251" t="n">
         <v>9.254999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>8.069999999999993</v>
       </c>
       <c r="K252" t="n">
-        <v>18.51851851851854</v>
+        <v>29.99999999999947</v>
       </c>
       <c r="L252" t="n">
         <v>9.260999999999997</v>
@@ -13131,7 +13153,7 @@
         <v>8.099999999999993</v>
       </c>
       <c r="K253" t="n">
-        <v>12.28070175438608</v>
+        <v>23.80952380952341</v>
       </c>
       <c r="L253" t="n">
         <v>9.263999999999998</v>
@@ -13182,7 +13204,7 @@
         <v>8.139999999999993</v>
       </c>
       <c r="K254" t="n">
-        <v>16.66666666666696</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L254" t="n">
         <v>9.272999999999996</v>
@@ -13233,7 +13255,7 @@
         <v>8.219999999999994</v>
       </c>
       <c r="K255" t="n">
-        <v>26.47058823529442</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>9.289999999999996</v>
@@ -13284,7 +13306,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K256" t="n">
-        <v>4.347826086956701</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L256" t="n">
         <v>9.289999999999996</v>
@@ -13335,7 +13357,7 @@
         <v>8.299999999999994</v>
       </c>
       <c r="K257" t="n">
-        <v>7.462686567164306</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L257" t="n">
         <v>9.293999999999993</v>
@@ -13386,7 +13408,7 @@
         <v>8.369999999999992</v>
       </c>
       <c r="K258" t="n">
-        <v>8.823529411764568</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>9.303999999999995</v>
@@ -13437,7 +13459,7 @@
         <v>8.439999999999991</v>
       </c>
       <c r="K259" t="n">
-        <v>10.44776119402998</v>
+        <v>2.702702702703144</v>
       </c>
       <c r="L259" t="n">
         <v>9.307999999999995</v>
@@ -13488,7 +13510,7 @@
         <v>8.439999999999991</v>
       </c>
       <c r="K260" t="n">
-        <v>10.44776119402998</v>
+        <v>2.702702702703144</v>
       </c>
       <c r="L260" t="n">
         <v>9.308999999999994</v>
@@ -13539,7 +13561,7 @@
         <v>8.439999999999991</v>
       </c>
       <c r="K261" t="n">
-        <v>3.225806451613143</v>
+        <v>2.702702702703144</v>
       </c>
       <c r="L261" t="n">
         <v>9.309999999999993</v>
@@ -13590,7 +13612,7 @@
         <v>8.469999999999992</v>
       </c>
       <c r="K262" t="n">
-        <v>6.666666666666549</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L262" t="n">
         <v>9.307999999999993</v>
@@ -13641,7 +13663,7 @@
         <v>8.549999999999992</v>
       </c>
       <c r="K263" t="n">
-        <v>17.64705882352935</v>
+        <v>12.1951219512193</v>
       </c>
       <c r="L263" t="n">
         <v>9.316999999999991</v>
@@ -13692,7 +13714,7 @@
         <v>8.639999999999992</v>
       </c>
       <c r="K264" t="n">
-        <v>6.66666666666654</v>
+        <v>-28.57142857142894</v>
       </c>
       <c r="L264" t="n">
         <v>9.312999999999992</v>
@@ -13743,7 +13765,7 @@
         <v>8.639999999999992</v>
       </c>
       <c r="K265" t="n">
-        <v>6.66666666666654</v>
+        <v>-11.76470588235328</v>
       </c>
       <c r="L265" t="n">
         <v>9.300999999999993</v>
@@ -13794,7 +13816,7 @@
         <v>8.729999999999992</v>
       </c>
       <c r="K266" t="n">
-        <v>6.66666666666654</v>
+        <v>11.62790697674399</v>
       </c>
       <c r="L266" t="n">
         <v>9.305999999999994</v>
@@ -13845,7 +13867,7 @@
         <v>8.809999999999992</v>
       </c>
       <c r="K267" t="n">
-        <v>1.265822784810104</v>
+        <v>-22.72727272727267</v>
       </c>
       <c r="L267" t="n">
         <v>9.302999999999994</v>
@@ -13896,7 +13918,7 @@
         <v>8.809999999999992</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-8.108108108108393</v>
       </c>
       <c r="L268" t="n">
         <v>9.292999999999992</v>
@@ -13947,7 +13969,7 @@
         <v>8.859999999999992</v>
       </c>
       <c r="K269" t="n">
-        <v>7.317073170731782</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L269" t="n">
         <v>9.294999999999991</v>
@@ -13998,7 +14020,7 @@
         <v>8.859999999999992</v>
       </c>
       <c r="K270" t="n">
-        <v>3.797468354430528</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L270" t="n">
         <v>9.296999999999993</v>
@@ -14049,7 +14071,7 @@
         <v>8.859999999999992</v>
       </c>
       <c r="K271" t="n">
-        <v>3.797468354430528</v>
+        <v>12.82051282051298</v>
       </c>
       <c r="L271" t="n">
         <v>9.298999999999994</v>
@@ -14100,7 +14122,7 @@
         <v>8.879999999999992</v>
       </c>
       <c r="K272" t="n">
-        <v>6.172839506172937</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L272" t="n">
         <v>9.305999999999994</v>
@@ -14151,7 +14173,7 @@
         <v>8.879999999999992</v>
       </c>
       <c r="K273" t="n">
-        <v>10.25641025641027</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>9.304999999999996</v>
@@ -14202,7 +14224,7 @@
         <v>8.939999999999992</v>
       </c>
       <c r="K274" t="n">
-        <v>-2.500000000000172</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L274" t="n">
         <v>9.306999999999995</v>
@@ -14253,7 +14275,7 @@
         <v>9.019999999999992</v>
       </c>
       <c r="K275" t="n">
-        <v>-2.500000000000172</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L275" t="n">
         <v>9.316999999999995</v>
@@ -14304,7 +14326,7 @@
         <v>9.079999999999991</v>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
+        <v>11.11111111111155</v>
       </c>
       <c r="L276" t="n">
         <v>9.311999999999994</v>
@@ -14355,7 +14377,7 @@
         <v>9.099999999999993</v>
       </c>
       <c r="K277" t="n">
-        <v>-2.500000000000172</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L277" t="n">
         <v>9.312999999999995</v>
@@ -14406,7 +14428,7 @@
         <v>9.099999999999993</v>
       </c>
       <c r="K278" t="n">
-        <v>-12.32876712328764</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L278" t="n">
         <v>9.313999999999997</v>
@@ -14457,7 +14479,7 @@
         <v>9.119999999999992</v>
       </c>
       <c r="K279" t="n">
-        <v>-5.882352941176594</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L279" t="n">
         <v>9.307999999999996</v>
@@ -14508,7 +14530,7 @@
         <v>9.129999999999992</v>
       </c>
       <c r="K280" t="n">
-        <v>-4.347826086956679</v>
+        <v>-18.51851851851881</v>
       </c>
       <c r="L280" t="n">
         <v>9.302999999999994</v>
@@ -14559,7 +14581,7 @@
         <v>9.129999999999992</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.347826086956679</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L281" t="n">
         <v>9.297999999999993</v>
@@ -14610,7 +14632,7 @@
         <v>9.129999999999992</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L282" t="n">
         <v>9.290999999999993</v>
@@ -14661,7 +14683,7 @@
         <v>9.189999999999992</v>
       </c>
       <c r="K283" t="n">
-        <v>-3.124999999999931</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L283" t="n">
         <v>9.289999999999992</v>
@@ -14712,7 +14734,7 @@
         <v>9.279999999999992</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.124999999999931</v>
+        <v>-46.15384615384589</v>
       </c>
       <c r="L284" t="n">
         <v>9.285999999999991</v>
@@ -14763,7 +14785,7 @@
         <v>9.289999999999992</v>
       </c>
       <c r="K285" t="n">
-        <v>-1.538461538461505</v>
+        <v>-23.80952380952405</v>
       </c>
       <c r="L285" t="n">
         <v>9.274999999999991</v>
@@ -14814,7 +14836,7 @@
         <v>9.359999999999992</v>
       </c>
       <c r="K286" t="n">
-        <v>-4.761904761904654</v>
+        <v>15.38461538461575</v>
       </c>
       <c r="L286" t="n">
         <v>9.27699999999999</v>
@@ -14865,7 +14887,7 @@
         <v>9.429999999999993</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.22580645161283</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="L287" t="n">
         <v>9.27399999999999</v>
@@ -14916,7 +14938,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K288" t="n">
-        <v>7.246376811594292</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L288" t="n">
         <v>9.277999999999992</v>
@@ -14967,7 +14989,7 @@
         <v>9.569999999999993</v>
       </c>
       <c r="K289" t="n">
-        <v>-9.859154929577493</v>
+        <v>-4.545454545454435</v>
       </c>
       <c r="L289" t="n">
         <v>9.27699999999999</v>
@@ -15018,7 +15040,7 @@
         <v>9.619999999999994</v>
       </c>
       <c r="K290" t="n">
-        <v>-2.63157894736836</v>
+        <v>6.122448979592044</v>
       </c>
       <c r="L290" t="n">
         <v>9.27999999999999</v>
@@ -15069,7 +15091,7 @@
         <v>9.669999999999995</v>
       </c>
       <c r="K291" t="n">
-        <v>-8.641975308641985</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L291" t="n">
         <v>9.277999999999992</v>
@@ -15120,7 +15142,7 @@
         <v>9.709999999999994</v>
       </c>
       <c r="K292" t="n">
-        <v>-6.024096385542241</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L292" t="n">
         <v>9.27999999999999</v>
@@ -15171,7 +15193,7 @@
         <v>9.709999999999994</v>
       </c>
       <c r="K293" t="n">
-        <v>-6.024096385542241</v>
+        <v>11.6279069767439</v>
       </c>
       <c r="L293" t="n">
         <v>9.275999999999993</v>
@@ -15222,7 +15244,7 @@
         <v>9.709999999999994</v>
       </c>
       <c r="K294" t="n">
-        <v>1.298701298701269</v>
+        <v>9.523809523809282</v>
       </c>
       <c r="L294" t="n">
         <v>9.280999999999993</v>
@@ -15273,7 +15295,7 @@
         <v>9.719999999999994</v>
       </c>
       <c r="K295" t="n">
-        <v>-11.42857142857142</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L295" t="n">
         <v>9.283999999999994</v>
@@ -15324,7 +15346,7 @@
         <v>9.729999999999993</v>
       </c>
       <c r="K296" t="n">
-        <v>-1.538461538461774</v>
+        <v>13.33333333333302</v>
       </c>
       <c r="L296" t="n">
         <v>9.280999999999995</v>
@@ -15375,7 +15397,7 @@
         <v>9.769999999999992</v>
       </c>
       <c r="K297" t="n">
-        <v>-4.477611940298413</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L297" t="n">
         <v>9.280999999999995</v>
@@ -15426,7 +15448,7 @@
         <v>9.779999999999992</v>
       </c>
       <c r="K298" t="n">
-        <v>-5.882352941176348</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L298" t="n">
         <v>9.272999999999993</v>
@@ -15477,7 +15499,7 @@
         <v>9.809999999999992</v>
       </c>
       <c r="K299" t="n">
-        <v>1.449275362318811</v>
+        <v>-15.78947368421131</v>
       </c>
       <c r="L299" t="n">
         <v>9.274999999999993</v>
@@ -15528,7 +15550,7 @@
         <v>9.809999999999992</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L300" t="n">
         <v>9.271999999999993</v>
@@ -15579,7 +15601,7 @@
         <v>9.849999999999991</v>
       </c>
       <c r="K301" t="n">
-        <v>-5.555555555555445</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L301" t="n">
         <v>9.269999999999992</v>
@@ -15630,7 +15652,7 @@
         <v>9.979999999999992</v>
       </c>
       <c r="K302" t="n">
-        <v>-20</v>
+        <v>-70.37037037037076</v>
       </c>
       <c r="L302" t="n">
         <v>9.250999999999994</v>
@@ -15681,7 +15703,7 @@
         <v>10.00999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>-31.70731707317077</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L303" t="n">
         <v>9.228999999999994</v>
@@ -15732,7 +15754,7 @@
         <v>10.01999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>-24.32432432432434</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L304" t="n">
         <v>9.205999999999994</v>
@@ -15783,7 +15805,7 @@
         <v>10.08999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-14.99999999999992</v>
+        <v>-44.44444444444428</v>
       </c>
       <c r="L305" t="n">
         <v>9.190999999999994</v>
@@ -15834,7 +15856,7 @@
         <v>10.17999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-12.19512195121949</v>
+        <v>-7.317073170731581</v>
       </c>
       <c r="L306" t="n">
         <v>9.183999999999994</v>
@@ -15885,7 +15907,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-6.49350649350659</v>
+        <v>-9.523809523809746</v>
       </c>
       <c r="L307" t="n">
         <v>9.178999999999995</v>
@@ -15936,7 +15958,7 @@
         <v>10.21999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>-13.88888888888883</v>
+        <v>-12.1951219512192</v>
       </c>
       <c r="L308" t="n">
         <v>9.176999999999996</v>
@@ -15987,7 +16009,7 @@
         <v>10.21999999999999</v>
       </c>
       <c r="K309" t="n">
-        <v>-4.615384615384515</v>
+        <v>-12.1951219512192</v>
       </c>
       <c r="L309" t="n">
         <v>9.171999999999995</v>
@@ -16038,7 +16060,7 @@
         <v>10.25999999999999</v>
       </c>
       <c r="K310" t="n">
-        <v>-6.250000000000157</v>
+        <v>7.317073170731517</v>
       </c>
       <c r="L310" t="n">
         <v>9.170999999999996</v>
@@ -16089,7 +16111,7 @@
         <v>10.25999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>1.694915254237258</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L311" t="n">
         <v>9.173999999999996</v>
@@ -16140,7 +16162,7 @@
         <v>10.26999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.142857142857006</v>
+        <v>69.2307692307687</v>
       </c>
       <c r="L312" t="n">
         <v>9.188999999999997</v>
@@ -16191,7 +16213,7 @@
         <v>10.37999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>-22.38805970149239</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L313" t="n">
         <v>9.195999999999998</v>
@@ -16242,7 +16264,7 @@
         <v>10.38999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>-20.58823529411753</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L314" t="n">
         <v>9.204999999999998</v>
@@ -16293,7 +16315,7 @@
         <v>10.45999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-8.108108108107952</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>9.213999999999999</v>
@@ -16344,7 +16366,7 @@
         <v>10.45999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.589041095890224</v>
+        <v>7.692307692308217</v>
       </c>
       <c r="L316" t="n">
         <v>9.213999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>10.50999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>-10.81081081081082</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L317" t="n">
         <v>9.210999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>-11.99999999999998</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L318" t="n">
         <v>9.203999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>-16.66666666666654</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L319" t="n">
         <v>9.196999999999999</v>
@@ -16548,7 +16570,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>-16.66666666666654</v>
+        <v>-40.74074074074059</v>
       </c>
       <c r="L320" t="n">
         <v>9.186</v>
@@ -16599,7 +16621,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>-11.76470588235293</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L321" t="n">
         <v>9.175000000000001</v>
@@ -16650,7 +16672,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>9.090909090909207</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L322" t="n">
         <v>9.165000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L323" t="n">
         <v>9.166</v>
@@ -16752,7 +16774,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>17.64705882352933</v>
+        <v>-100</v>
       </c>
       <c r="L324" t="n">
         <v>9.166</v>
@@ -16803,7 +16825,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>4.545454545454435</v>
+        <v>-100</v>
       </c>
       <c r="L325" t="n">
         <v>9.159000000000002</v>
@@ -16854,7 +16876,7 @@
         <v>10.52999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L326" t="n">
         <v>9.152000000000003</v>
@@ -16905,7 +16927,7 @@
         <v>10.60999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>-31.70731707317048</v>
+        <v>-100</v>
       </c>
       <c r="L327" t="n">
         <v>9.142000000000003</v>
@@ -16956,7 +16978,7 @@
         <v>10.61999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>-35.00000000000026</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L328" t="n">
         <v>9.135000000000002</v>
@@ -17007,7 +17029,7 @@
         <v>10.62999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>-31.70731707317105</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L329" t="n">
         <v>9.129000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>10.66999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>-51.21951219512193</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L330" t="n">
         <v>9.119000000000002</v>
@@ -17109,7 +17131,7 @@
         <v>10.73999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-29.16666666666697</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L331" t="n">
         <v>9.116000000000001</v>
@@ -17160,7 +17182,7 @@
         <v>10.77999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>-33.33333333333356</v>
+        <v>-28.00000000000051</v>
       </c>
       <c r="L332" t="n">
         <v>9.109</v>
@@ -17211,7 +17233,7 @@
         <v>10.78999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-12.19512195121979</v>
+        <v>-23.0769230769236</v>
       </c>
       <c r="L333" t="n">
         <v>9.103</v>
@@ -17262,7 +17284,7 @@
         <v>10.81999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-20.93023255813969</v>
+        <v>-31.03448275862111</v>
       </c>
       <c r="L334" t="n">
         <v>9.093999999999999</v>
@@ -17313,7 +17335,7 @@
         <v>10.81999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>-44.44444444444499</v>
+        <v>-31.03448275862111</v>
       </c>
       <c r="L335" t="n">
         <v>9.084999999999999</v>
@@ -17364,7 +17386,7 @@
         <v>10.82999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>-45.94594594594646</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L336" t="n">
         <v>9.074999999999999</v>
@@ -17415,7 +17437,7 @@
         <v>10.82999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>-37.50000000000035</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L337" t="n">
         <v>9.072999999999999</v>
@@ -17466,7 +17488,7 @@
         <v>10.83999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>-29.03225806451654</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L338" t="n">
         <v>9.071</v>
@@ -17517,7 +17539,7 @@
         <v>10.84999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>-25.00000000000042</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L339" t="n">
         <v>9.068999999999999</v>
@@ -17568,7 +17590,7 @@
         <v>10.87999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>-14.28571428571472</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L340" t="n">
         <v>9.074</v>
@@ -17619,7 +17641,7 @@
         <v>10.87999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>-14.28571428571472</v>
+        <v>20</v>
       </c>
       <c r="L341" t="n">
         <v>9.071999999999999</v>
@@ -17670,7 +17692,7 @@
         <v>10.88999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-11.11111111111155</v>
+        <v>20</v>
       </c>
       <c r="L342" t="n">
         <v>9.074999999999999</v>
@@ -17721,7 +17743,7 @@
         <v>10.93999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-21.95121951219546</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>9.071999999999999</v>
@@ -17772,7 +17794,7 @@
         <v>10.97999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>-11.11111111111146</v>
+        <v>25</v>
       </c>
       <c r="L344" t="n">
         <v>9.075999999999997</v>
@@ -17823,7 +17845,7 @@
         <v>10.98999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>-13.0434782608699</v>
+        <v>25</v>
       </c>
       <c r="L345" t="n">
         <v>9.078999999999997</v>
@@ -17874,7 +17896,7 @@
         <v>11.02999999999998</v>
       </c>
       <c r="K346" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>9.078999999999997</v>
@@ -17925,7 +17947,7 @@
         <v>11.03999999999998</v>
       </c>
       <c r="K347" t="n">
-        <v>-2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>9.079999999999998</v>
@@ -17976,7 +17998,7 @@
         <v>11.03999999999998</v>
       </c>
       <c r="K348" t="n">
-        <v>-4.761904761904762</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L348" t="n">
         <v>9.079999999999998</v>
@@ -18027,7 +18049,7 @@
         <v>11.03999999999998</v>
       </c>
       <c r="K349" t="n">
-        <v>-7.317073170731707</v>
+        <v>-25</v>
       </c>
       <c r="L349" t="n">
         <v>9.078999999999999</v>
@@ -18078,7 +18100,7 @@
         <v>11.04999999999998</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L350" t="n">
         <v>9.074</v>
@@ -18129,7 +18151,7 @@
         <v>11.04999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-22.58064516129032</v>
+        <v>-37.5</v>
       </c>
       <c r="L351" t="n">
         <v>9.068999999999999</v>
@@ -18180,7 +18202,7 @@
         <v>11.05999999999998</v>
       </c>
       <c r="K352" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>9.064</v>
@@ -18231,7 +18253,7 @@
         <v>11.08999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L353" t="n">
         <v>9.067</v>
@@ -18282,7 +18304,7 @@
         <v>11.14999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-9.09090909090958</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L354" t="n">
         <v>9.06</v>
@@ -18333,7 +18355,7 @@
         <v>11.16999999999998</v>
       </c>
       <c r="K355" t="n">
-        <v>-14.28571428571472</v>
+        <v>-28.57142857142948</v>
       </c>
       <c r="L355" t="n">
         <v>9.052000000000001</v>
@@ -18384,7 +18406,7 @@
         <v>11.17999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>-8.571428571429035</v>
+        <v>-28.57142857142948</v>
       </c>
       <c r="L356" t="n">
         <v>9.049000000000001</v>
@@ -18435,7 +18457,7 @@
         <v>11.18999999999998</v>
       </c>
       <c r="K357" t="n">
-        <v>-11.11111111111155</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L357" t="n">
         <v>9.044</v>
@@ -18486,7 +18508,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K358" t="n">
-        <v>-16.66666666666708</v>
+        <v>-37.5000000000007</v>
       </c>
       <c r="L358" t="n">
         <v>9.038</v>
@@ -18537,7 +18559,7 @@
         <v>11.20999999999998</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.66666666666708</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L359" t="n">
         <v>9.033000000000001</v>
@@ -18588,7 +18610,7 @@
         <v>11.20999999999998</v>
       </c>
       <c r="K360" t="n">
-        <v>-27.27272727272766</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L360" t="n">
         <v>9.029000000000002</v>
@@ -18639,7 +18661,7 @@
         <v>11.20999999999998</v>
       </c>
       <c r="K361" t="n">
-        <v>-27.27272727272766</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L361" t="n">
         <v>9.025000000000002</v>
@@ -18690,7 +18712,7 @@
         <v>11.20999999999998</v>
       </c>
       <c r="K362" t="n">
-        <v>-31.25000000000038</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L362" t="n">
         <v>9.020000000000003</v>
@@ -18741,7 +18763,7 @@
         <v>11.26999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>3.030303030302998</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L363" t="n">
         <v>9.018000000000004</v>
@@ -18792,7 +18814,7 @@
         <v>11.31999999999998</v>
       </c>
       <c r="K364" t="n">
-        <v>-23.52941176470603</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L364" t="n">
         <v>9.017000000000003</v>
@@ -18843,7 +18865,7 @@
         <v>11.32999999999998</v>
       </c>
       <c r="K365" t="n">
-        <v>-23.52941176470603</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L365" t="n">
         <v>9.017000000000003</v>
@@ -18894,7 +18916,7 @@
         <v>11.38999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>5.555555555555445</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L366" t="n">
         <v>9.022000000000004</v>
@@ -18945,7 +18967,7 @@
         <v>11.41999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>-5.263157894737187</v>
+        <v>18.18181818181759</v>
       </c>
       <c r="L367" t="n">
         <v>9.025000000000004</v>
@@ -18996,7 +19018,7 @@
         <v>11.43999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>-10.00000000000022</v>
+        <v>4.347826086956387</v>
       </c>
       <c r="L368" t="n">
         <v>9.027000000000005</v>
@@ -19047,7 +19069,7 @@
         <v>11.47999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>18.51851851851857</v>
       </c>
       <c r="L369" t="n">
         <v>9.032000000000004</v>
@@ -19098,7 +19120,7 @@
         <v>11.48999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L370" t="n">
         <v>9.036000000000003</v>
@@ -19149,7 +19171,7 @@
         <v>11.50999999999998</v>
       </c>
       <c r="K371" t="n">
-        <v>4.347826086956421</v>
+        <v>20</v>
       </c>
       <c r="L371" t="n">
         <v>9.042000000000003</v>
@@ -19200,7 +19222,7 @@
         <v>11.50999999999998</v>
       </c>
       <c r="K372" t="n">
-        <v>2.222222222222169</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>9.048000000000004</v>
@@ -19251,7 +19273,7 @@
         <v>11.50999999999998</v>
       </c>
       <c r="K373" t="n">
-        <v>-4.761904761904641</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L373" t="n">
         <v>9.048000000000005</v>
@@ -19302,7 +19324,7 @@
         <v>11.50999999999998</v>
       </c>
       <c r="K374" t="n">
-        <v>11.11111111111133</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L374" t="n">
         <v>9.053000000000004</v>
@@ -19353,7 +19375,7 @@
         <v>11.52999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>11.11111111111133</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L375" t="n">
         <v>9.057000000000004</v>
@@ -19404,7 +19426,7 @@
         <v>11.52999999999998</v>
       </c>
       <c r="K376" t="n">
-        <v>8.571428571428861</v>
+        <v>9.090909090910559</v>
       </c>
       <c r="L376" t="n">
         <v>9.055000000000003</v>
@@ -19455,7 +19477,7 @@
         <v>11.52999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>11.76470588235316</v>
+        <v>33.33333333333465</v>
       </c>
       <c r="L377" t="n">
         <v>9.056000000000003</v>
@@ -19506,7 +19528,7 @@
         <v>11.56999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>24.32432432432422</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>9.063000000000004</v>
@@ -19557,7 +19579,7 @@
         <v>11.56999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>22.22222222222217</v>
+        <v>50</v>
       </c>
       <c r="L379" t="n">
         <v>9.066000000000004</v>
@@ -19608,7 +19630,7 @@
         <v>11.57999999999998</v>
       </c>
       <c r="K380" t="n">
-        <v>24.32432432432422</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L380" t="n">
         <v>9.071000000000003</v>
@@ -19659,7 +19681,7 @@
         <v>11.62999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>9.523809523809746</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L381" t="n">
         <v>9.069000000000003</v>
@@ -19710,7 +19732,7 @@
         <v>11.66999999999998</v>
       </c>
       <c r="K382" t="n">
-        <v>17.39130434782614</v>
+        <v>12.5</v>
       </c>
       <c r="L382" t="n">
         <v>9.071000000000003</v>
@@ -19761,7 +19783,7 @@
         <v>11.67999999999998</v>
       </c>
       <c r="K383" t="n">
-        <v>7.317073170731581</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L383" t="n">
         <v>9.074000000000003</v>
@@ -19812,7 +19834,7 @@
         <v>11.70999999999998</v>
       </c>
       <c r="K384" t="n">
-        <v>12.8205128205131</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L384" t="n">
         <v>9.074000000000003</v>
@@ -19863,7 +19885,7 @@
         <v>11.70999999999998</v>
       </c>
       <c r="K385" t="n">
-        <v>15.78947368421077</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L385" t="n">
         <v>9.076000000000004</v>
@@ -19914,7 +19936,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K386" t="n">
-        <v>21.95121951219527</v>
+        <v>40.74074074074113</v>
       </c>
       <c r="L386" t="n">
         <v>9.087000000000003</v>
@@ -19965,7 +19987,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K387" t="n">
-        <v>31.57894736842169</v>
+        <v>30.43478260869619</v>
       </c>
       <c r="L387" t="n">
         <v>9.098000000000003</v>
@@ -20016,7 +20038,7 @@
         <v>11.81999999999998</v>
       </c>
       <c r="K388" t="n">
-        <v>31.57894736842169</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L388" t="n">
         <v>9.103000000000003</v>
@@ -20067,7 +20089,7 @@
         <v>11.81999999999998</v>
       </c>
       <c r="K389" t="n">
-        <v>23.52941176470628</v>
+        <v>16.66666666666729</v>
       </c>
       <c r="L389" t="n">
         <v>9.108000000000002</v>
@@ -20118,7 +20140,7 @@
         <v>11.83999999999998</v>
       </c>
       <c r="K390" t="n">
-        <v>31.42857142857178</v>
+        <v>52.38095238095278</v>
       </c>
       <c r="L390" t="n">
         <v>9.114000000000003</v>
@@ -20169,7 +20191,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K391" t="n">
-        <v>7.692307692307622</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L391" t="n">
         <v>9.119000000000003</v>
@@ -20220,7 +20242,7 @@
         <v>11.94999999999998</v>
       </c>
       <c r="K392" t="n">
-        <v>18.18181818181836</v>
+        <v>18.51851851851881</v>
       </c>
       <c r="L392" t="n">
         <v>9.125000000000004</v>
@@ -20271,7 +20293,7 @@
         <v>11.94999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>18.18181818181836</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>9.130000000000004</v>
@@ -20322,7 +20344,7 @@
         <v>11.94999999999998</v>
       </c>
       <c r="K394" t="n">
-        <v>18.18181818181836</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>9.138000000000005</v>
@@ -20373,7 +20395,7 @@
         <v>11.95999999999998</v>
       </c>
       <c r="K395" t="n">
-        <v>25.5813953488373</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>9.147000000000006</v>

--- a/BackTest/2019-11-01 BackTest MIX.xlsx
+++ b/BackTest/2019-11-01 BackTest MIX.xlsx
@@ -451,17 +451,13 @@
         <v>8.938000000000011</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>8.940166666666677</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>8.941500000000012</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>8.942500000000013</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>8.944333333333345</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>8.946166666666679</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>8.94816666666668</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>8.950000000000014</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>8.952166666666679</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>8.954333333333347</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>8.956166666666681</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -926,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -967,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1008,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1131,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1172,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1213,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1254,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1336,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1459,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1500,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1541,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1582,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1623,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1664,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1705,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1740,22 +1536,14 @@
         <v>8.998833333333346</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1783,22 +1571,14 @@
         <v>9.001666666666678</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1826,22 +1606,14 @@
         <v>9.003166666666678</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1875,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1916,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1957,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1998,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2080,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2121,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2162,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2197,22 +1921,14 @@
         <v>9.008666666666672</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K44" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2240,22 +1956,14 @@
         <v>9.007666666666671</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K45" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2283,22 +1991,14 @@
         <v>9.007666666666671</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K46" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2326,22 +2026,14 @@
         <v>9.007666666666671</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>9</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2369,22 +2061,14 @@
         <v>9.007666666666671</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2412,22 +2096,14 @@
         <v>9.006666666666671</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K49" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2455,22 +2131,14 @@
         <v>9.005333333333338</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K50" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2166,14 @@
         <v>9.005666666666672</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2541,22 +2201,14 @@
         <v>9.004500000000005</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2236,14 @@
         <v>9.003000000000005</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2627,22 +2271,14 @@
         <v>9.002666666666672</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2306,14 @@
         <v>9.001166666666672</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K55" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2713,22 +2341,14 @@
         <v>9.000833333333338</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K56" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2756,22 +2376,14 @@
         <v>9.00016666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2799,22 +2411,14 @@
         <v>8.999333333333336</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K58" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2842,22 +2446,14 @@
         <v>8.99866666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K59" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2885,22 +2481,14 @@
         <v>8.998833333333335</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2928,22 +2516,14 @@
         <v>8.999333333333336</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K61" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2971,22 +2551,14 @@
         <v>8.998833333333335</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="K62" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +2586,14 @@
         <v>8.998833333333335</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K63" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3057,22 +2621,14 @@
         <v>8.99666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3100,22 +2656,14 @@
         <v>8.994833333333336</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3143,22 +2691,14 @@
         <v>8.993666666666671</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +2726,14 @@
         <v>8.992500000000005</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3229,22 +2761,14 @@
         <v>8.990333333333338</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3272,22 +2796,14 @@
         <v>8.988000000000005</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K69" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3315,22 +2831,14 @@
         <v>8.987666666666673</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +2866,14 @@
         <v>8.985833333333339</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3401,22 +2901,14 @@
         <v>8.985833333333339</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3444,22 +2936,14 @@
         <v>8.984000000000005</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3487,22 +2971,14 @@
         <v>8.98333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K74" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3006,14 @@
         <v>8.982500000000007</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9</v>
-      </c>
-      <c r="K75" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3573,22 +3041,14 @@
         <v>8.982000000000006</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9</v>
-      </c>
-      <c r="K76" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3616,22 +3076,14 @@
         <v>8.98183333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K77" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3659,22 +3111,14 @@
         <v>8.981500000000008</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9</v>
-      </c>
-      <c r="K78" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3702,22 +3146,14 @@
         <v>8.981166666666674</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3745,22 +3181,14 @@
         <v>8.980833333333342</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3788,22 +3216,14 @@
         <v>8.980500000000008</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K81" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3831,22 +3251,14 @@
         <v>8.981666666666674</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K82" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3874,22 +3286,14 @@
         <v>8.981666666666674</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3917,22 +3321,14 @@
         <v>8.981666666666674</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K84" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3960,22 +3356,14 @@
         <v>8.981500000000008</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K85" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +3391,14 @@
         <v>8.981000000000007</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K86" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4046,22 +3426,14 @@
         <v>8.980833333333342</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K87" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +3461,14 @@
         <v>8.981000000000007</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K88" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4179,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4343,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4384,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4425,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4504,17 +3814,11 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4548,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4630,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4671,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4712,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4753,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4791,19 +4059,13 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.032694013303769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4832,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -5917,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5952,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -13754,13 +13016,17 @@
         <v>9.105166666666671</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K361" t="n">
+        <v>9.01</v>
+      </c>
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
@@ -13789,14 +13055,22 @@
         <v>9.103666666666671</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K362" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13824,14 +13098,22 @@
         <v>9.103666666666671</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K363" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13859,14 +13141,22 @@
         <v>9.103000000000005</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="K364" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13894,14 +13184,22 @@
         <v>9.101000000000004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K365" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13929,14 +13227,22 @@
         <v>9.098500000000005</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="K366" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13970,8 +13276,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14005,8 +13317,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14040,8 +13358,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14075,8 +13399,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14110,8 +13440,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14145,8 +13481,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14180,8 +13522,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +13563,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest MIX.xlsx
+++ b/BackTest/2019-11-01 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>156010.289</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>156010.289</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>8.880000000000001</v>
@@ -521,7 +521,7 @@
         <v>182553.3622999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>8.880000000000001</v>
@@ -562,7 +562,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>8.9</v>
@@ -603,7 +603,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>8.91</v>
@@ -644,7 +644,7 @@
         <v>238875.6099</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>8.91</v>
@@ -685,9 +685,11 @@
         <v>247984.8259999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.91</v>
+      </c>
       <c r="J8" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -724,9 +726,11 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J9" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -763,9 +767,11 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.91</v>
+      </c>
       <c r="J10" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -802,7 +808,7 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>8.91</v>
@@ -843,9 +849,11 @@
         <v>294175.9090999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.91</v>
+      </c>
       <c r="J12" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -882,7 +890,7 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>8.93</v>
@@ -923,7 +931,7 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>8.880000000000001</v>
@@ -964,7 +972,7 @@
         <v>291185.9090999999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>8.880000000000001</v>
@@ -1005,7 +1013,7 @@
         <v>215396.3955999999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>8.91</v>
@@ -1046,9 +1054,11 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J17" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>8.91</v>
@@ -1126,7 +1136,7 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>8.91</v>
@@ -1167,7 +1177,7 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>8.869999999999999</v>
@@ -1208,7 +1218,7 @@
         <v>63833.67159999994</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>8.869999999999999</v>
@@ -1249,7 +1259,7 @@
         <v>51057.74099999994</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>8.92</v>
@@ -1290,9 +1300,11 @@
         <v>135795.0046999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="J23" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1329,9 +1341,11 @@
         <v>259467.7625</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.91</v>
+      </c>
       <c r="J24" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1368,9 +1382,11 @@
         <v>258662.2812999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J25" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1407,9 +1423,11 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="J26" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1446,9 +1464,11 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J27" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1485,9 +1505,11 @@
         <v>283155.6234999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J28" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1524,9 +1546,11 @@
         <v>238678.1689999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.869999999999999</v>
+      </c>
       <c r="J29" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1563,7 +1587,7 @@
         <v>238878.1857999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>8.85</v>
@@ -1604,7 +1628,7 @@
         <v>239178.1857999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>8.92</v>
@@ -1645,9 +1669,11 @@
         <v>239145.0024999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J32" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1684,9 +1710,11 @@
         <v>164145.0024999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.890000000000001</v>
+      </c>
       <c r="J33" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1723,9 +1751,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="J34" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1762,9 +1792,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J35" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1801,9 +1833,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J36" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1840,9 +1874,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J37" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1879,9 +1915,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J38" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1918,9 +1956,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J39" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1957,9 +1997,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J40" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -1996,9 +2038,11 @@
         <v>243724.8035</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J41" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -2035,9 +2079,11 @@
         <v>271790.1416</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8.970000000000001</v>
+      </c>
       <c r="J42" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -4921,9 +4967,11 @@
         <v>-2159970.805237</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J116" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -4999,9 +5047,11 @@
         <v>-2161131.289537</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8.92</v>
+      </c>
       <c r="J118" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5038,9 +5088,11 @@
         <v>-2161131.289537</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J119" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5077,9 +5129,11 @@
         <v>-2158305.289537</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>8.98</v>
+      </c>
       <c r="J120" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5233,9 +5287,11 @@
         <v>-2293783.418437</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>8.83</v>
+      </c>
       <c r="J124" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5272,9 +5328,11 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>8.85</v>
+      </c>
       <c r="J125" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5311,9 +5369,11 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J126" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5350,9 +5410,11 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="J127" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5389,9 +5451,11 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>8.9</v>
+      </c>
       <c r="J128" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5428,9 +5492,11 @@
         <v>-1960863.586937001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>8.9</v>
+      </c>
       <c r="J129" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5467,9 +5533,11 @@
         <v>-1967434.824537001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J130" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5506,9 +5574,11 @@
         <v>-1939934.381137001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J131" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5545,9 +5615,11 @@
         <v>-1939944.381137001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J132" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5584,9 +5656,11 @@
         <v>-1939834.381137001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8.93</v>
+      </c>
       <c r="J133" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5623,9 +5697,11 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J134" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -5662,9 +5738,11 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9</v>
+      </c>
       <c r="J135" t="n">
         <v>8.880000000000001</v>
       </c>
@@ -8899,7 +8977,7 @@
         <v>5321787.616913791</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
@@ -8907,15 +8985,13 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1.073828828828829</v>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8943,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8976,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9009,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9042,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9075,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9108,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9141,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9174,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9207,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9240,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9273,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9306,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9339,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9372,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9405,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9438,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9471,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9504,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9534,15 +9718,23 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.083963963963964</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9567,7 +9759,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9600,7 +9792,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9633,7 +9825,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9666,7 +9858,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9699,7 +9891,7 @@
         <v>6457519.665990255</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9732,7 +9924,7 @@
         <v>6267263.002590255</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9765,7 +9957,7 @@
         <v>6881039.856290255</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9831,7 +10023,7 @@
         <v>6543163.954290255</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9996,7 +10188,7 @@
         <v>4703862.044887467</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10029,7 +10221,7 @@
         <v>5021286.787787467</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10062,7 +10254,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10095,7 +10287,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10128,7 +10320,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10161,7 +10353,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10194,7 +10386,7 @@
         <v>4916652.123787467</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10227,7 +10419,7 @@
         <v>4514624.368287467</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10260,7 +10452,7 @@
         <v>4531679.857287467</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10293,7 +10485,7 @@
         <v>4521639.935687467</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10326,7 +10518,7 @@
         <v>4549002.615187467</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10359,7 +10551,7 @@
         <v>4549002.615187467</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10392,7 +10584,7 @@
         <v>4444594.262587467</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10425,7 +10617,7 @@
         <v>4042303.440287467</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10458,7 +10650,7 @@
         <v>4056022.978987467</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10491,7 +10683,7 @@
         <v>4055983.053987467</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10524,7 +10716,7 @@
         <v>4055983.053987467</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10557,7 +10749,7 @@
         <v>4059154.301344761</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10590,7 +10782,7 @@
         <v>4059154.301344761</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10887,7 +11079,7 @@
         <v>2916167.557493284</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11052,7 +11244,7 @@
         <v>2183994.146618549</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11085,7 +11277,7 @@
         <v>2159817.647718549</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11118,7 +11310,7 @@
         <v>2126271.629118549</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11151,7 +11343,7 @@
         <v>2126271.629118549</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11184,7 +11376,7 @@
         <v>2130838.182518549</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11217,7 +11409,7 @@
         <v>2314138.106539084</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11250,7 +11442,7 @@
         <v>1762211.637139084</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11283,7 +11475,7 @@
         <v>1696253.864739084</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11316,7 +11508,7 @@
         <v>1696253.864739084</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11349,7 +11541,7 @@
         <v>1696253.864739084</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11382,7 +11574,7 @@
         <v>1783965.372839084</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11481,7 +11673,7 @@
         <v>1819889.433139084</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11514,7 +11706,7 @@
         <v>1827614.991195153</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11547,7 +11739,7 @@
         <v>1826106.739295153</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -15441,10 +15633,14 @@
         <v>-1301660.193788693</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J416" t="n">
+        <v>9.02</v>
+      </c>
       <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
@@ -15474,11 +15670,19 @@
         <v>-1513249.752488693</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J417" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15510,8 +15714,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15543,8 +15753,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15576,8 +15792,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15609,8 +15831,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15642,8 +15870,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15675,8 +15909,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +15948,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15741,8 +15987,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15774,8 +16026,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15807,8 +16065,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15840,8 +16104,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15873,8 +16143,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15906,8 +16182,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15939,8 +16221,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15972,8 +16260,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +16299,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +16338,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16071,8 +16377,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16137,8 +16455,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +16494,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16203,8 +16533,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +16572,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +16611,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16302,8 +16650,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16335,14 +16689,20 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
       <c r="M443" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest MIX.xlsx
+++ b/BackTest/2019-11-01 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>156010.289</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>156010.289</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.880000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>182553.3622999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>238875.6099</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>238875.6099</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>238875.6099</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>247984.8259999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>294175.9090999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>291185.9090999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>215396.3955999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>63833.67159999994</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1111,11 @@
         <v>51057.74099999994</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1144,11 @@
         <v>135795.0046999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1177,11 @@
         <v>259467.7625</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1210,11 @@
         <v>258662.2812999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J25" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1423,19 +1243,11 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J26" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1464,19 +1276,11 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1505,19 +1309,11 @@
         <v>283155.6234999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J28" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1546,19 +1342,11 @@
         <v>238678.1689999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="J29" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1587,19 +1375,11 @@
         <v>238878.1857999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J30" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1628,19 +1408,11 @@
         <v>239178.1857999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J31" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1669,19 +1441,11 @@
         <v>239145.0024999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J32" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1710,19 +1474,11 @@
         <v>164145.0024999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1751,19 +1507,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1792,19 +1540,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1833,19 +1573,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1874,19 +1606,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1915,19 +1639,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1956,19 +1672,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1997,19 +1705,11 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J40" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2038,19 +1738,11 @@
         <v>243724.8035</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,19 +1771,11 @@
         <v>271790.1416</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2123,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2162,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2240,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2318,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2357,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2396,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2435,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2474,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2864,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2903,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2942,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3176,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3293,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3332,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3371,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3449,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3566,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3605,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3644,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3683,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3722,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3761,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3878,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3917,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3956,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3995,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4034,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4073,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4112,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4151,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4190,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4229,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4268,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4307,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4346,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4385,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4424,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4463,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4502,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4541,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4580,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4658,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4697,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4736,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4775,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4814,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4853,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4892,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4931,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4967,19 +4213,11 @@
         <v>-2159970.805237</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J116" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5047,19 +4279,11 @@
         <v>-2161131.289537</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="J118" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5088,19 +4312,11 @@
         <v>-2161131.289537</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J119" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5129,19 +4345,11 @@
         <v>-2158305.289537</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="J120" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5173,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5212,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5251,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5287,19 +4477,11 @@
         <v>-2293783.418437</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>8.83</v>
-      </c>
-      <c r="J124" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5328,19 +4510,11 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="J125" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5369,19 +4543,11 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5410,19 +4576,11 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="J127" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5451,19 +4609,11 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5492,19 +4642,11 @@
         <v>-1960863.586937001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5533,19 +4675,11 @@
         <v>-1967434.824537001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J130" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5574,19 +4708,11 @@
         <v>-1939934.381137001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J131" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5615,19 +4741,11 @@
         <v>-1939944.381137001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J132" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5656,19 +4774,11 @@
         <v>-1939834.381137001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="J133" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5697,19 +4807,11 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J134" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5738,19 +4840,11 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>9</v>
-      </c>
-      <c r="J135" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5977,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6133,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6172,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6328,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6367,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6484,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6520,17 +5500,11 @@
         <v>-2066653.025302965</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6559,17 +5533,11 @@
         <v>-1993973.131402965</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6598,17 +5566,11 @@
         <v>-1719503.347402965</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6637,17 +5599,11 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6676,17 +5632,11 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6715,17 +5665,11 @@
         <v>-1539461.496402965</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6754,17 +5698,11 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6793,17 +5731,11 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6832,17 +5764,11 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6871,17 +5797,11 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6910,17 +5830,11 @@
         <v>-1829895.471402965</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6949,17 +5863,11 @@
         <v>-2159910.256002965</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7186,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7459,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7534,17 +6358,11 @@
         <v>729448.3595970349</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7576,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7612,17 +6424,11 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7651,17 +6457,11 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7690,17 +6490,11 @@
         <v>91985.04839703487</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7729,17 +6523,11 @@
         <v>618388.2329970349</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7768,17 +6556,11 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7807,17 +6589,11 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7846,17 +6622,11 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7885,17 +6655,11 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7927,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7966,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8005,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8044,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8083,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8122,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8161,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8200,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8239,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8278,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8317,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8356,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8395,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8434,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8473,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8512,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8551,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8590,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8629,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8668,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8707,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8746,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8824,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8863,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8902,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8941,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8980,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9019,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9058,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9097,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9136,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9175,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9214,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9253,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9292,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9331,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9370,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9409,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9448,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9487,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9526,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9565,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9604,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9643,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9682,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9718,23 +8206,15 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
-        <v>1.083963963963964</v>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9759,7 +8239,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9792,7 +8272,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9825,7 +8305,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9858,7 +8338,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9891,7 +8371,7 @@
         <v>6457519.665990255</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9924,7 +8404,7 @@
         <v>6267263.002590255</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9957,7 +8437,7 @@
         <v>6881039.856290255</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10023,7 +8503,7 @@
         <v>6543163.954290255</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10188,7 +8668,7 @@
         <v>4703862.044887467</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10221,7 +8701,7 @@
         <v>5021286.787787467</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10254,7 +8734,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10287,7 +8767,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10320,7 +8800,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10353,7 +8833,7 @@
         <v>5010790.910487467</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10386,7 +8866,7 @@
         <v>4916652.123787467</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10419,7 +8899,7 @@
         <v>4514624.368287467</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10452,7 +8932,7 @@
         <v>4531679.857287467</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10485,7 +8965,7 @@
         <v>4521639.935687467</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10518,7 +8998,7 @@
         <v>4549002.615187467</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10551,7 +9031,7 @@
         <v>4549002.615187467</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10584,7 +9064,7 @@
         <v>4444594.262587467</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10617,7 +9097,7 @@
         <v>4042303.440287467</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10650,7 +9130,7 @@
         <v>4056022.978987467</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10683,7 +9163,7 @@
         <v>4055983.053987467</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10716,7 +9196,7 @@
         <v>4055983.053987467</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10749,7 +9229,7 @@
         <v>4059154.301344761</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10782,7 +9262,7 @@
         <v>4059154.301344761</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -11244,7 +9724,7 @@
         <v>2183994.146618549</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11277,7 +9757,7 @@
         <v>2159817.647718549</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11310,7 +9790,7 @@
         <v>2126271.629118549</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11343,7 +9823,7 @@
         <v>2126271.629118549</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11376,7 +9856,7 @@
         <v>2130838.182518549</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -15600,10 +14080,14 @@
         <v>-1293031.738088693</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J415" t="n">
+        <v>9.01</v>
+      </c>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -15639,9 +14123,13 @@
         <v>9.02</v>
       </c>
       <c r="J416" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="K416" t="inlineStr"/>
+        <v>9.01</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15676,7 +14164,7 @@
         <v>9.01</v>
       </c>
       <c r="J417" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15711,11 +14199,13 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>9</v>
+      </c>
       <c r="J418" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15750,11 +14240,13 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J419" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15789,11 +14281,13 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J420" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15828,11 +14322,13 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J421" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15867,11 +14363,13 @@
         <v>-1160433.148800568</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J422" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15906,11 +14404,13 @@
         <v>-1160473.098800568</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>9.07</v>
+      </c>
       <c r="J423" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15945,11 +14445,13 @@
         <v>-1213235.896275651</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J424" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15984,11 +14486,13 @@
         <v>-1207721.579419311</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>9.01</v>
+      </c>
       <c r="J425" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16023,11 +14527,13 @@
         <v>-1207761.529419311</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>9.07</v>
+      </c>
       <c r="J426" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16062,11 +14568,13 @@
         <v>-1296296.953119311</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>9.039999999999999</v>
+      </c>
       <c r="J427" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16101,11 +14609,13 @@
         <v>-1293366.412419311</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J428" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16140,11 +14650,13 @@
         <v>-1413886.987619311</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>9.06</v>
+      </c>
       <c r="J429" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16179,11 +14691,13 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>9.050000000000001</v>
+      </c>
       <c r="J430" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16218,11 +14732,13 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>9.07</v>
+      </c>
       <c r="J431" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16261,7 +14777,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16300,7 +14816,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16339,7 +14855,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16378,7 +14894,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16417,7 +14933,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16456,7 +14972,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16495,7 +15011,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16534,7 +15050,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16573,7 +15089,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16612,7 +15128,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16651,7 +15167,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16690,7 +15206,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>9.02</v>
+        <v>9.01</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16703,6 +15219,6 @@
       <c r="M443" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest MIX.xlsx
+++ b/BackTest/2019-11-01 BackTest MIX.xlsx
@@ -451,7 +451,7 @@
         <v>156010.289</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>156010.289</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>182553.3622999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>238875.6099</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>238875.6099</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>238875.6099</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>247984.8259999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>241818.6470999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>294175.9090999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>291175.9090999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +972,19 @@
         <v>291185.9090999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1013,19 @@
         <v>215396.3955999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1054,19 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1095,19 @@
         <v>215406.3955999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1136,19 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1177,19 @@
         <v>63816.52249999993</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1218,19 @@
         <v>63833.67159999994</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1259,19 @@
         <v>51057.74099999994</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1300,19 @@
         <v>135795.0046999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1341,19 @@
         <v>259467.7625</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1382,19 @@
         <v>258662.2812999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1423,19 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1464,19 @@
         <v>290724.9400999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1505,19 @@
         <v>283155.6234999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1546,19 @@
         <v>238678.1689999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1587,19 @@
         <v>238878.1857999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1628,19 @@
         <v>239178.1857999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1669,19 @@
         <v>239145.0024999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1710,19 @@
         <v>164145.0024999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1751,19 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1792,19 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1833,19 @@
         <v>213418.4203999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J36" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1877,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1916,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1955,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1994,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +2033,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2072,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2111,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2150,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2189,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2228,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2267,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2345,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2384,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2423,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2462,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2501,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2579,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2618,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2657,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2696,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2735,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2774,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2813,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2852,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2891,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2930,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2969,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +3008,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +3047,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3086,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3125,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3164,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3203,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3242,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3281,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3320,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3359,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3437,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3476,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3515,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3554,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3593,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3632,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3671,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3710,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3749,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3788,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3827,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3866,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3905,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3944,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3983,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +4022,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4061,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4100,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4139,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4217,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4295,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4334,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4373,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4412,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4490,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4529,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4568,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4607,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4646,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4685,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4763,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4880,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4919,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4958,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4997,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5075,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5114,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5153,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5192,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5231,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5270,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +5306,19 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J125" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5347,19 @@
         <v>-2293773.418437</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J126" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +5388,19 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="J127" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5429,19 @@
         <v>-2293803.368437001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J128" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5470,19 @@
         <v>-1960863.586937001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J129" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5511,19 @@
         <v>-1967434.824537001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J130" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5552,19 @@
         <v>-1939934.381137001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J131" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5593,19 @@
         <v>-1939944.381137001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J132" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5634,19 @@
         <v>-1939834.381137001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="J133" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5675,19 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J134" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5716,19 @@
         <v>-2199008.279537001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>9</v>
+      </c>
+      <c r="J135" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5757,19 @@
         <v>-2198897.291837001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5798,19 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J137" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5839,19 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5880,19 @@
         <v>-2287419.447737001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9</v>
+      </c>
+      <c r="J139" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5921,19 @@
         <v>-1954456.073737001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>9</v>
+      </c>
+      <c r="J140" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5962,19 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J141" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +6003,19 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J142" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +6044,19 @@
         <v>-1435877.787937001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J143" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +6085,19 @@
         <v>-1484464.683637001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J144" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +6126,19 @@
         <v>-1564464.683637001</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="J145" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +6167,19 @@
         <v>-1564381.876337001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="J146" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +6208,19 @@
         <v>-1392471.109237001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +6249,19 @@
         <v>-1310390.449737001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +6290,19 @@
         <v>-899121.1727370007</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J149" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6526,17 @@
         <v>-2066653.025302965</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6565,17 @@
         <v>-1993973.131402965</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6604,17 @@
         <v>-1719503.347402965</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6643,17 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6682,17 @@
         <v>-1775688.060402965</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6721,17 @@
         <v>-1539461.496402965</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6760,17 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6799,17 @@
         <v>-1682397.739702965</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6838,17 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6877,17 @@
         <v>-1687955.836402965</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6916,17 @@
         <v>-1829895.471402965</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6955,17 @@
         <v>-2159910.256002965</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +7036,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +7075,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7387,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7540,17 @@
         <v>729448.3595970349</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7618,17 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7657,17 @@
         <v>729458.3595970349</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7696,17 @@
         <v>91985.04839703487</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7735,17 @@
         <v>618388.2329970349</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7774,17 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7813,17 @@
         <v>628888.5028970349</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7852,17 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7891,17 @@
         <v>766344.2730970349</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7933,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7972,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +8089,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +8128,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +8167,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +8206,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +8245,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +8284,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +8323,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +8440,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8518,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8674,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8713,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8869,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8908,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8986,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +9064,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +9103,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +9142,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +9181,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +9259,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +9298,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +9337,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +9376,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +9415,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +9454,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +9493,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +9532,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +9571,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +9610,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +9649,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +9688,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,15 +9724,23 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.083963963963964</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8239,7 +9765,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +9798,7 @@
         <v>6515108.459990256</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +9831,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +9864,7 @@
         <v>6598609.286390255</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +9897,7 @@
         <v>6457519.665990255</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9930,7 @@
         <v>6267263.002590255</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +9963,7 @@
         <v>6881039.856290255</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +9996,7 @@
         <v>6558189.100890255</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +10029,7 @@
         <v>6543163.954290255</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +10062,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +10095,7 @@
         <v>6466638.523187467</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +10128,7 @@
         <v>5448350.488487467</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +10161,7 @@
         <v>5336584.900287467</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -14080,14 +15606,10 @@
         <v>-1293031.738088693</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J415" t="n">
-        <v>9.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
@@ -14117,19 +15639,11 @@
         <v>-1301660.193788693</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J416" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14158,19 +15672,11 @@
         <v>-1513249.752488693</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J417" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14199,19 +15705,11 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>9</v>
-      </c>
-      <c r="J418" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14240,19 +15738,11 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J419" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14281,19 +15771,11 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J420" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14322,19 +15804,11 @@
         <v>-1160443.148800568</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J421" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14363,19 +15837,11 @@
         <v>-1160433.148800568</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J422" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14404,19 +15870,11 @@
         <v>-1160473.098800568</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J423" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14445,19 +15903,11 @@
         <v>-1213235.896275651</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J424" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14486,19 +15936,11 @@
         <v>-1207721.579419311</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="J425" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14527,19 +15969,11 @@
         <v>-1207761.529419311</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J426" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14568,19 +16002,11 @@
         <v>-1296296.953119311</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="J427" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14609,19 +16035,11 @@
         <v>-1293366.412419311</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="J428" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14650,19 +16068,11 @@
         <v>-1413886.987619311</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="J429" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14691,19 +16101,11 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J430" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14732,19 +16134,11 @@
         <v>-1351581.485719311</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="J431" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14776,14 +16170,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14815,14 +16203,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14854,14 +16236,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14893,14 +16269,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14932,14 +16302,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14971,14 +16335,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15010,14 +16368,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15049,14 +16401,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15088,14 +16434,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +16467,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +16500,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +16533,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
